--- a/FDD/test_output/Design_results.xlsx
+++ b/FDD/test_output/Design_results.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,36 +483,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub</t>
+          <t>dxs_sub_933_C_T_sub</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
+          <t>GTAAGCTCCTGGGGCTTCAC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CCAACGCGCACGGAAATAATCGCGGACAGGCCTTCACG</t>
+          <t>ATCCCTCCAGCGGTTGTTTACCGAAAAGTAGCGGCGGTTT</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>GTAAGCTCCTGGGGCTTCACTCGTTTGCCGCCTTCCTGCAACTCGAATTATTTAGAGTCTATGAATAATTTCTTAAGCATAGCAGGAGTGGAGTAGGGATTATGCCAGCCAGGCCTTGATTTTGGCTTCCATACCAGCGGCATCGAGGCCGAGTTCGGCGCGCATTTCTTCCTGAGTTCCTTGCGGAATAAAGAAGTCCGGCAGGCCAATGTTCAGCACGGGTACTGGTTTACGATGGGCCATCAGCACTTCGTTCACGCCGCTGCCTGCGCCGCCCATAATGGCGTTTTCTTCTACGGTGACCAGCGCTTCATGGCTGGCGGCCATTTCCAGAATTAACGCTTCATCAAGCGGTTTCACAAAACGCATATCGACCAGCGTGGCGTTCAGCGATTCGGCGACTTTCGCCGCTTCTGGCATCAGCGTACCAAAGTTAAGGATCGCCAGTTTCTCGCCACGACGCTTCACAATGCCTTTGCCAATTGGTAGTTTTTCCAGCGGCGTCAGTTCCACGCCGACCGCGTTGCCACGCGGGTAGCGCACCGCTGACGGGCCATCGTTATAGTGATAGCCGGTATAGAGCATCTGGCGACATTCGTTTTCATCGCTCGGGGTCATAATGACCATTTCCGGTATGCAGCGCAGGTAAGAGAGATCAAAAGCACCCTGATGGGTTTGACCGTCAGCACCAACAATGCCCGCGCGGTCGATGGCGAACAGGACCGGAAGCTTTTGAATCGCCACGTCATGCAGCACCTGATCATAGGCGCGTTGCAGGAAAGTGGAGTAAATCGCGACAATGGGTTTGTACCCACCAATCGCCAGACCCGCAGCAAAGGTCACCGCGTGTTGCTCGGCAATTGCCACGTCGAAGTAGCGATCCGGGAATTTACGTGAAAACTCGACCATGCCGGAACCTTCACGCATCGCCGGAGTAATCGCCATCAGCTTGTTGTCTTTCGCTGCCGTTTCGCACAACCAGTCGCCAAAGATTTTTGAATAGCTCGGCAAACCGCCGCTACTTTTCGG</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>CAAAGTCGGGAAACGCGAAGGTCGGTTTTTCCTAAGGGGTTGTATTGCATGCTGCCACTCCTGCTATACTCGTCATACTTCAAGTTGCATGTGCTGCGGCTGCATTCGTTCACCCCAGTCACTTACTTATGTAAGCTCCTGGGGCTTCACTCGTTTGCCGCCTTCCTGCAACTCGAATTATTTAGAGTCTATGAATAATTTCTTAAGCATAGCAGGAGTGGAGTAGGGATTATGCCAGCCAGGCCTTGATTTTGGCTTCCATACCAGCGGCATCGAGGCCGAGTTCGGCGCGCATTTCTTCCTGAGTTCCTTGCGGAATAAAGAAGTCCGGCAGGCCAATGTTCAGCACGGGTACTGGTTTACGATGGGCCATCAGCACTTCGTTCACGCCGCTGCCTGCGCCGCCCATAATGGCGTTTTCTTCTACGGTGACCAGCGCTTCATGGCTGGCGGCCATTTCCAGAATTAACGCTTCATCAAGCGGTTTCACAAAACGCATATCGACCAGCGTGGCGTTCAGCGATTCGGCGACTTTCGCCGCTTCTGGCATCAGCGTACCAAAGTTAAGGATCGCCAGTTTCTCGCCACGACGCTTCACAATGCCTTTGCCAATTGGTAGTTTTTCCAGCGGCGTCAGTTCCACGCCGACCGCGTTGCCACGCGGGTAGCGCACCGCTGACGGGCCATCGTTATAGTGATAGCCGGTATAGAGCATCTGGCGACATTCGTTTTCATCGCTCGGGGTCATAATGACCATTTCCGGTATGCAGCGCAGGTAAGAGAGATCAAAAGCACCCTGATGGGTTTGACCGTCAGCACCAACAATGCCCGCGCGGTCGATGGCGAACAGGACCGGAAGCTTTTGAATCGCCACGTCATGCAGCACCTGATCATAGGCGCGTTGCAGGAAAGTGGAGTAAATCGCGACAATGGGTTTGTACCCACCAATCGCCAGACCCGCAGCAAAGGTCACCGCGTGTTGCTCGGCAATTGCCACGTCGAAGTAGCGATCCGGGAATTTACGTGAAAACTCGACCATGCCGGAACCTTCACGCATCGCCGGAGTAATCGCCATCAGCTTGTTGTCTTTCGCTGCCGTTTCGCACAACCAGTCGCCAAAGATTTTTGAATAGCTCGGCAAACCGCCGCTACTTTTCGG</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGG</t>
+          <t>GTAAGCTCCTGGGGCTTCACTCGTTTGCCGCCTTCCTGCAACTCGAATTATTTAGAGTCTATGAATAATTTCTTAAGCATAGCAGGAGTGGAGTAGGGATTATGCCAGCCAGGCCTTGATTTTGGCTTCCATACCAGCGGCATCGAGGCCGAGTTCGGCGCGCATTTCTTCCTGAGTTCCTTGCGGAATAAAGAAGTCCGGCAGGCCAATGTTCAGCACGGGTACTGGTTTACGATGGGCCATCAGCACTTCGTTCACGCCGCTGCCTGCGCCGCCCATAATGGCGTTTTCTTCTACGGTGACCAGCGCTTCATGGCTGGCGGCCATTTCCAGAATTAACGCTTCATCAAGCGGTTTCACAAAACGCATATCGACCAGCGTGGCGTTCAGCGATTCGGCGACTTTCGCCGCTTCTGGCATCAGCGTACCAAAGTTAAGGATCGCCAGTTTCTCGCCACGACGCTTCACAATGCCTTTGCCAATTGGTAGTTTTTCCAGCGGCGTCAGTTCCACGCCGACCGCGTTGCCACGCGGGTAGCGCACCGCTGACGGGCCATCGTTATAGTGATAGCCGGTATAGAGCATCTGGCGACATTCGTTTTCATCGCTCGGGGTCATAATGACCATTTCCGGTATGCAGCGCAGGTAAGAGAGATCAAAAGCACCCTGATGGGTTTGACCGTCAGCACCAACAATGCCCGCGCGGTCGATGGCGAACAGGACCGGAAGCTTTTGAATCGCCACGTCATGCAGCACCTGATCATAGGCGCGTTGCAGGAAAGTGGAGTAAATCGCGACAATGGGTTTGTACCCACCAATCGCCAGACCCGCAGCAAAGGTCACCGCGTGTTGCTCGGCAATTGCCACGTCGAAGTAGCGATCCGGGAATTTACGTGAAAACTCGACCATGCCGGAACCTTCACGCATCGCCGGAGTAATCGCCATCAGCTTGTTGTCTTTCGCTGCCGTTTCGCACAACCAGTCGCCAAAGATTTTTGAATAGCTCGGCAAACCGCCGCTACTTTTCGGTAAACAACCGCTGGAGGGAT</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1070</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="3">
@@ -521,36 +521,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins</t>
+          <t>pntA_promoter_sub</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
+          <t>CGAGGTTTGTGCCGTAAAGC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ACGCGCACGGAAATAACGCGCGCGGACAGGCCTTCACG</t>
+          <t>AGGTATAATGCTAGCACGAATCTAGAGAAAGATTGGACGTACCATAATGCGAATTGGCATACCAAGAG</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>CGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCAT</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>ACCTGAATCGGCGGTGCCGGCCAGGTAATTTCGCCCGCACGGATCACGGTCACGCCGCGAATCACCACATCATCAAAATCAACAGTGATATTGCCGTCTTTCTCTTTGCACAACAGTTTCAGCAGATTAACGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCAT</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGCGCGTTATTTCCGTGCGCGT</t>
+          <t>CGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCATTATGGTACGTCCAATCTTTCTCTAGATTCGTGCTAGCATTATACCT</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1070</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="4">
@@ -559,188 +559,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub</t>
+          <t>Cgl1452_ins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
+          <t>CACTGCGCGGGATTTTATGG</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CCAACGCGCACGGAAATGGACGCGGACAGGCCTTCACG</t>
+          <t>TCAATACTCTTTTTGGCGCGCATGTGAACGCCTGACCAGG</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>CACTGCGCGGGATTTTATGGAGATTCACTTACCTAAAGATTTACGTGAACTGTGCGATCTCGATAGCTTAAAACTGGAATCCGCCAGCTTTGTCGATGAAAAATTGCGGGCGCTACACTCCGATATTTTATGGTCGGTAAAGACCCGCGAAGGCGATGGCTATATCTATGTGGTGATTGAACATCAGAGCCGCGAGGACATTCATATGGCCTTTCGCCTGATGCGCTATTCCATGGCGGTGATGTAGCGCCATATAGAGCATGATAAACGCCAGCCGCTACCGTTGGTCATCCCGATGCTATTTTATCACGGTAGCCGTAGTCCTTACCCCTGGTCCCTGTGCTGGCTGGACGAATTTGCCGACCCGACTACCGCACGGAAGCTTTATAACGCCGCGTTCCCGCTGGTGGATGTTACTGTCGTGCCAGACGACGAGATTGTGCAGCATCGCAGAGTCGCCCTGTTGGAGTTGATCCAAAAGCATATTCGCCAGCGCGATCTGATGGGGCTTATCGATCAACTGGTAGTATTACTGGTTACAGAGTGTGCTAATGACAGCCAGATAACTGCGCTGTTAAATTACATTTTACTGACTGGCGATGAAGCGCGTTTTAATGAGTTTATCAGTGAACTTACCCGTCGAATGCCACAACACAGGGAGCGAATAATGACGATTGCAGAGCGAATTCATAATGATGGATATATAAAAGGGGAGCAGCGCATTCTTCGATTGTTGTTGCAGAATGGGGCGGATCCTGAATGGATACAAAAGATTACCGGACTTTCGGCAGAGCAAATGCAGGCATTAAGGCAGCCCTTGCCTGAGCGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATG</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>CGGGTGAGAATGGTTTTGTTAGTCGCTAAAGTCAGGCCATCTTTTTCAACAGGTGATGGATCGCCATGACAAACTTCACGACCAGCACGCCGCATGATGCATTATTTAAAACCTTTCTCACGCACCCTGACACTGCGCGGGATTTTATGGAGATTCACTTACCTAAAGATTTACGTGAACTGTGCGATCTCGATAGCTTAAAACTGGAATCCGCCAGCTTTGTCGATGAAAAATTGCGGGCGCTACACTCCGATATTTTATGGTCGGTAAAGACCCGCGAAGGCGATGGCTATATCTATGTGGTGATTGAACATCAGAGCCGCGAGGACATTCATATGGCCTTTCGCCTGATGCGCTATTCCATGGCGGTGATGTAGCGCCATATAGAGCATGATAAACGCCAGCCGCTACCGTTGGTCATCCCGATGCTATTTTATCACGGTAGCCGTAGTCCTTACCCCTGGTCCCTGTGCTGGCTGGACGAATTTGCCGACCCGACTACCGCACGGAAGCTTTATAACGCCGCGTTCCCGCTGGTGGATGTTACTGTCGTGCCAGACGACGAGATTGTGCAGCATCGCAGAGTCGCCCTGTTGGAGTTGATCCAAAAGCATATTCGCCAGCGCGATCTGATGGGGCTTATCGATCAACTGGTAGTATTACTGGTTACAGAGTGTGCTAATGACAGCCAGATAACTGCGCTGTTAAATTACATTTTACTGACTGGCGATGAAGCGCGTTTTAATGAGTTTATCAGTGAACTTACCCGTCGAATGCCACAACACAGGGAGCGAATAATGACGATTGCAGAGCGAATTCATAATGATGGATATATAAAAGGGGAGCAGCGCATTCTTCGATTGTTGTTGCAGAATGGGGCGGATCCTGAATGGATACAAAAGATTACCGGACTTTCGGCAGAGCAAATGCAGGCATTAAGGCAGCCCTTGCCTGAGCGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATG</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGTCCATTTCCGTGCGCGTTGG</t>
+          <t>CACTGCGCGGGATTTTATGGAGATTCACTTACCTAAAGATTTACGTGAACTGTGCGATCTCGATAGCTTAAAACTGGAATCCGCCAGCTTTGTCGATGAAAAATTGCGGGCGCTACACTCCGATATTTTATGGTCGGTAAAGACCCGCGAAGGCGATGGCTATATCTATGTGGTGATTGAACATCAGAGCCGCGAGGACATTCATATGGCCTTTCGCCTGATGCGCTATTCCATGGCGGTGATGTAGCGCCATATAGAGCATGATAAACGCCAGCCGCTACCGTTGGTCATCCCGATGCTATTTTATCACGGTAGCCGTAGTCCTTACCCCTGGTCCCTGTGCTGGCTGGACGAATTTGCCGACCCGACTACCGCACGGAAGCTTTATAACGCCGCGTTCCCGCTGGTGGATGTTACTGTCGTGCCAGACGACGAGATTGTGCAGCATCGCAGAGTCGCCCTGTTGGAGTTGATCCAAAAGCATATTCGCCAGCGCGATCTGATGGGGCTTATCGATCAACTGGTAGTATTACTGGTTACAGAGTGTGCTAATGACAGCCAGATAACTGCGCTGTTAAATTACATTTTACTGACTGGCGATGAAGCGCGTTTTAATGAGTTTATCAGTGAACTTACCCGTCGAATGCCACAACACAGGGAGCGAATAATGACGATTGCAGAGCGAATTCATAATGATGGATATATAAAAGGGGAGCAGCGCATTCTTCGATTGTTGTTGCAGAATGGGGCGGATCCTGAATGGATACAAAAGATTACCGGACTTTCGGCAGAGCAAATGCAGGCATTAAGGCAGCCCTTGCCTGAGCGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATGCGCGCCAAAAAGAGTATTGA</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_15to19_sub</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CCTATCCGTATGTGTCTCTCCGCGGACAGGCCTTCACG</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGAGAGACACATACGGATAGG</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_90_ins</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CGTGCAACGGCCCCTTGCGCCAGCTTGGGGCCTGAGGCCCAAAAATACGCAGCTCCGCGGACAGGCCTTCACG</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACG</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>TGCTCAATTGGATCTGTCATCGCGGACAGGCCTTCACG</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATGACAGATCCAATTGAGCA</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CAAGGCCTGTCGCAGTTTTC</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>TGCTCAATTGGATCTGTCATAACGCGAGAAACGGCAAAAT</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTT</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CCTGGGTGCTGAAGTGATGGCAGCCAGATTTGCCCTGCTCAATGAGTTGGGGCCGAAAATCTATGAGGCTTACACCACGATCGCCCCGGAATCCCGGCCAGCTGCGGTGAATTACAAAACCACCATCGATCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTT</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>CAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTATGACAGATCCAATTGAGCA</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1069</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,35 +653,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub</t>
+          <t>dxs_sub_933_C_T_sub</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TTATTTCCGTGCGCGTTGGT</t>
+          <t>AAACAACCGCTGGAGGGATC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
+          <t>CAGTCACTCGATACCTCGGC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>AAACAACCGCTGGAGGGATCAAATTTAGGCACGGCGTGGAAAGTGATCGGGTCTTTTTCTGCCGGTTCATAACCACGACCTTTTTTGGTCATGATATGCAGGAACTGCGGGCCTTTCAGGTCGCGCATGTTCTTTAGCGTGGTGATAAGCCCCAGCACATCGTGACCGTCCACCGGGCCGATGTAGTTAAAGCCCAGCTCTTCAAACAACGTGCCAGGCACTACCATGCCTTTAATATGTTCTTCGGTGCGTTTGAGCAGCTCTTTAATTGGCGGCACGCCAGAGAAAACTTTTTTCCCGCCTTCGCGCAGTGAAGAGTAAAGCTTACCGGAAAGCAGCTGTGCCAGATGGTTGTTGAGCGCGCCGACATTTTCGGAAATCGACATTTCATTGTCGTTGAGAATCACCAGCATATCAGGACGGATATCGCCCGCGTGATTCATCGCTTCAAACGCCATGCCTGCGGTAATCGCGCCATCGCCAATGACACAGACGGTGCGGCGATTTTTGCCTTCTTTTTCGGCAGCAACCGCAATACCAATTCCGGCACTGATGGAGGTTGATGAATGCCCGACGCTTAATACGTCATATTCGCTTTCGCCGCGCCACGGGAACGGGTGCAGACCGCCTTTCTGACGGATGGTGCCGATTTTGTCGCGGCGTCCGGTCAAAATTTTATGCGGATAAGCCTGATGCCCCACATCCCAAATCAATTGGTCAAACGGGGTGTTGTAGACATAGTGCAGCGCCACGGTCAGTTCGACCGTGCCCAGCCCGGAGGCGAAGTGCCCGCTGGAACGGCTCACGCTGTCGAGTAAATAGCGGCGCAGTTCGTCGCAGAGTTTCGGTAAACTCTCTTTCGGCAACAGTCGTAACTCCTGGGTGGAGTCGACCAGTGCCAGGGTCGGGTATTTGGCAATATCAAAACTCATCAGGGGCCTATTAATACTTATTGTTTATTTATTACGCTGGATGATGTAGTCCGCTAGCGCTTCCAGTGCCGAGGTATCGAGTGACTG</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>988</v>
+        <v>1019</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>TTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCT</t>
+          <t>AAACAACCGCTGGAGGGATCAAATTTAGGCACGGCGTGGAAAGTGATCGGGTCTTTTTCTGCCGGTTCATAACCACGACCTTTTTTGGTCATGATATGCAGGAACTGCGGGCCTTTCAGGTCGCGCATGTTCTTTAGCGTGGTGATAAGCCCCAGCACATCGTGACCGTCCACCGGGCCGATGTAGTTAAAGCCCAGCTCTTCAAACAACGTGCCAGGCACTACCATGCCTTTAATATGTTCTTCGGTGCGTTTGAGCAGCTCTTTAATTGGCGGCACGCCAGAGAAAACTTTTTTCCCGCCTTCGCGCAGTGAAGAGTAAAGCTTACCGGAAAGCAGCTGTGCCAGATGGTTGTTGAGCGCGCCGACATTTTCGGAAATCGACATTTCATTGTCGTTGAGAATCACCAGCATATCAGGACGGATATCGCCCGCGTGATTCATCGCTTCAAACGCCATGCCTGCGGTAATCGCGCCATCGCCAATGACACAGACGGTGCGGCGATTTTTGCCTTCTTTTTCGGCAGCAACCGCAATACCAATTCCGGCACTGATGGAGGTTGATGAATGCCCGACGCTTAATACGTCATATTCGCTTTCGCCGCGCCACGGGAACGGGTGCAGACCGCCTTTCTGACGGATGGTGCCGATTTTGTCGCGGCGTCCGGTCAAAATTTTATGCGGATAAGCCTGATGCCCCACATCCCAAATCAATTGGTCAAACGGGGTGTTGTAGACATAGTGCAGCGCCACGGTCAGTTCGACCGTGCCCAGCCCGGAGGCGAAGTGCCCGCTGGAACGGCTCACGCTGTCGAGTAAATAGCGGCGCAGTTCGTCGCAGAGTTTCGGTAAACTCTCTTTCGGCAACAGTCGTAACTCCTGGGTGGAGTCGACCAGTGCCAGGGTCGGGTATTTGGCAATATCAAAACTCATCAGGGGCCTATTAATACTTATTGTTTATTTATTACGCTGGATGATGTAGTCCGCTAGCGCTTCCAGTGCCGAGGTATCGAGTGACTGTTCAGCCAGTTGTTTCAGCGACTGACGGGCATCGTCGATCAGATCCCGGGCTTTCTTCCGGGCTTGCTCAAGACCCAGAAGTGCAGGGTAGGTACTTTTACCAAGTTGCTGGTCGGCACCCTGGCGTTTT</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>TTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>AAACAACCGCTGGAGGGATCAAATTTAGGCACGGCGTGGAAAGTGATCGGGTCTTTTTCTGCCGGTTCATAACCACGACCTTTTTTGGTCATGATATGCAGGAACTGCGGGCCTTTCAGGTCGCGCATGTTCTTTAGCGTGGTGATAAGCCCCAGCACATCGTGACCGTCCACCGGGCCGATGTAGTTAAAGCCCAGCTCTTCAAACAACGTGCCAGGCACTACCATGCCTTTAATATGTTCTTCGGTGCGTTTGAGCAGCTCTTTAATTGGCGGCACGCCAGAGAAAACTTTTTTCCCGCCTTCGCGCAGTGAAGAGTAAAGCTTACCGGAAAGCAGCTGTGCCAGATGGTTGTTGAGCGCGCCGACATTTTCGGAAATCGACATTTCATTGTCGTTGAGAATCACCAGCATATCAGGACGGATATCGCCCGCGTGATTCATCGCTTCAAACGCCATGCCTGCGGTAATCGCGCCATCGCCAATGACACAGACGGTGCGGCGATTTTTGCCTTCTTTTTCGGCAGCAACCGCAATACCAATTCCGGCACTGATGGAGGTTGATGAATGCCCGACGCTTAATACGTCATATTCGCTTTCGCCGCGCCACGGGAACGGGTGCAGACCGCCTTTCTGACGGATGGTGCCGATTTTGTCGCGGCGTCCGGTCAAAATTTTATGCGGATAAGCCTGATGCCCCACATCCCAAATCAATTGGTCAAACGGGGTGTTGTAGACATAGTGCAGCGCCACGGTCAGTTCGACCGTGCCCAGCCCGGAGGCGAAGTGCCCGCTGGAACGGCTCACGCTGTCGAGTAAATAGCGGCGCAGTTCGTCGCAGAGTTTCGGTAAACTCTCTTTCGGCAACAGTCGTAACTCCTGGGTGGAGTCGACCAGTGCCAGGGTCGGGTATTTGGCAATATCAAAACTCATCAGGGGCCTATTAATACTTATTGTTTATTTATTACGCTGGATGATGTAGTCCGCTAGCGCTTCCAGTGCCGAGGTATCGAGTGACTG</t>
         </is>
       </c>
     </row>
@@ -843,35 +691,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins</t>
+          <t>pntA_promoter_sub</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GTTATTTCCGTGCGCGTTGG</t>
+          <t>TTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
+          <t>ACTTGGTGATGCGGTAGTCG</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>GTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>TTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGT</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>989</v>
+        <v>1032</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>GTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCT</t>
+          <t>GTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGTTCTGAAGTCGGTCGCTTCTTTGAAACCCAGTCATCAAAAGGCGGGCGTTACACCGTCACGCTCCCGGATGGCACTAAAGTCGAAGAACTGAACAAAGCGACCGCAGCGATGATGGTCCCGTTCGACAGCA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>GTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>GTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGT</t>
         </is>
       </c>
     </row>
@@ -881,187 +729,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub</t>
+          <t>Cgl1452_ins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ATTTCCGTGCGCGTTGGT</t>
+          <t>GCTCCGAGGTTGAAGCTTAAGCATCCGGCATGAACAAAGC</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
+          <t>CGATGTCGCTGGCGTTAATG</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>GCTCCGAGGTTGAAGCTTAAGCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACGGCCTCGCCAATTTGCTTCAGTGCTTCGCGATAGGTTTCGCTGAGCGGCAAAGCGCAGTTGATGCGCAGACAATTACGGTATTTGCCGGAAGCTGAGAAAATCGAGCCTGCCGCCACCTGGATTTTCATGCGGCACAGCTGCCGCGCGACGCAGACCATATCGACCTGTTCAGGCAATTCTATCCACAGTAAAAATCCGCCTTTCGGGCGCGTAATACAGATTTCGCAGGGAAAATATTCCCGTATCCAGCAGGTATAAAGCGCCAAATTGCGCTGATAGATCTGCCGCATCCGCCGGATATGGCGATGATAGTGACCTTCCAGCACAAACGTTGCCGCCGCCATTTGCGTGGACGGCACATTAAAGCTGCTGATGGCGTATTTCATATGCATCAGTTTATCGTGATAACGCCCCGGTGCGACCCAACCCACGCGCAGGCCTGGTGCAATACTTTTACTGAACGAGCTGCACAACAGCACTCGCCCGTCGATATCCCAGGAATGAATGGTCCGCGGGCGCGGATACTCCGTCGCCAGTTCGCCATAGACATCATCTTCAAAAATCACAATATCATGACGCTGAGCGAGAGAGAGAACGGCCCGTTTGCGCGCGTCCGGCATAATAAATCCCAGCGGATTATTACAGTTTGGCACCAGAATGATGCCTTTAATCGGCCACTGTTCCAGCGCCAGTTCCAGCGCTTCAACGCTGATGCCAGTTTCTGGATCGGTTGGGATTTCAATCACTTTCACGCCCATGCCGCGCAGCATCTGCATCGAACCGTAATAACAGGGGGATTCGACCGCGACAATATCGCCCGGTTTACACACTGCCATTAACGCCAGCGACATCG</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>986</v>
+        <v>1021</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCT</t>
+          <t>GCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACGGCCTCGCCAATTTGCTTCAGTGCTTCGCGATAGGTTTCGCTGAGCGGCAAAGCGCAGTTGATGCGCAGACAATTACGGTATTTGCCGGAAGCTGAGAAAATCGAGCCTGCCGCCACCTGGATTTTCATGCGGCACAGCTGCCGCGCGACGCAGACCATATCGACCTGTTCAGGCAATTCTATCCACAGTAAAAATCCGCCTTTCGGGCGCGTAATACAGATTTCGCAGGGAAAATATTCCCGTATCCAGCAGGTATAAAGCGCCAAATTGCGCTGATAGATCTGCCGCATCCGCCGGATATGGCGATGATAGTGACCTTCCAGCACAAACGTTGCCGCCGCCATTTGCGTGGACGGCACATTAAAGCTGCTGATGGCGTATTTCATATGCATCAGTTTATCGTGATAACGCCCCGGTGCGACCCAACCCACGCGCAGGCCTGGTGCAATACTTTTACTGAACGAGCTGCACAACAGCACTCGCCCGTCGATATCCCAGGAATGAATGGTCCGCGGGCGCGGATACTCCGTCGCCAGTTCGCCATAGACATCATCTTCAAAAATCACAATATCATGACGCTGAGCGAGAGAGAGAACGGCCCGTTTGCGCGCGTCCGGCATAATAAATCCCAGCGGATTATTACAGTTTGGCACCAGAATGATGCCTTTAATCGGCCACTGTTCCAGCGCCAGTTCCAGCGCTTCAACGCTGATGCCAGTTTCTGGATCGGTTGGGATTTCAATCACTTTCACGCCCATGCCGCGCAGCATCTGCATCGAACCGTAATAACAGGGGGATTCGACCGCGACAATATCGCCCGGTTTACACACTGCCATTAACGCCAGCGACATCGAGTTATGGCAGCCGCTGGTGATGATGATGTCATCGGCGGTGACCACCGAGCCGCTGTCGAGCATCAGGCGGGCAATCTGCTCTCGCAATACTCGCTGACCGGCTAACAAGTCATAACCGAGAACGGTTTG</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_15to19_sub</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>GTTGGTGACCCACAGTTCGA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>974</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>GTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCT</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>GTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_90_ins</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>GCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGG</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>GCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1044</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>GTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCT</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>GTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGG</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1009</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>GTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCT</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>GTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CGAGAGACACATACGGATAGAGCGCCTTACTTAACCCGC</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>AACTTTGCCGGGCCAAAATC</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CGAGAGACACATACGGATAGAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTT</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1005</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>AGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTTTTAGGAAAAGACCTGGTGGGTTATGGCCGACAATCGGGAACTCACATGAGGGAATGGCGTCGATTCCATAAGCACAATTCTTTGGACGATCTCACCGCGCAGGACATCAACTATGTGGAGGTGATGAAGA</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>AGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTT</t>
+          <t>GCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACGGCCTCGCCAATTTGCTTCAGTGCTTCGCGATAGGTTTCGCTGAGCGGCAAAGCGCAGTTGATGCGCAGACAATTACGGTATTTGCCGGAAGCTGAGAAAATCGAGCCTGCCGCCACCTGGATTTTCATGCGGCACAGCTGCCGCGCGACGCAGACCATATCGACCTGTTCAGGCAATTCTATCCACAGTAAAAATCCGCCTTTCGGGCGCGTAATACAGATTTCGCAGGGAAAATATTCCCGTATCCAGCAGGTATAAAGCGCCAAATTGCGCTGATAGATCTGCCGCATCCGCCGGATATGGCGATGATAGTGACCTTCCAGCACAAACGTTGCCGCCGCCATTTGCGTGGACGGCACATTAAAGCTGCTGATGGCGTATTTCATATGCATCAGTTTATCGTGATAACGCCCCGGTGCGACCCAACCCACGCGCAGGCCTGGTGCAATACTTTTACTGAACGAGCTGCACAACAGCACTCGCCCGTCGATATCCCAGGAATGAATGGTCCGCGGGCGCGGATACTCCGTCGCCAGTTCGCCATAGACATCATCTTCAAAAATCACAATATCATGACGCTGAGCGAGAGAGAGAACGGCCCGTTTGCGCGCGTCCGGCATAATAAATCCCAGCGGATTATTACAGTTTGGCACCAGAATGATGCCTTTAATCGGCCACTGTTCCAGCGCCAGTTCCAGCGCTTCAACGCTGATGCCAGTTTCTGGATCGGTTGGGATTTCAATCACTTTCACGCCCATGCCGCGCAGCATCTGCATCGAACCGTAATAACAGGGGGATTCGACCGCGACAATATCGCCCGGTTTACACACTGCCATTAACGCCAGCGACATCG</t>
         </is>
       </c>
     </row>
@@ -1076,7 +772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1127,36 +823,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub</t>
+          <t>dxs_sub_933_C_T_sub</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
+          <t>GTAAGCTCCTGGGGCTTCAC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACCGCGGACAGGCCTTCACG</t>
+          <t>TCGGCTTGAAAGGTTTGCACCCGAAAAGTAGCGGCGGTTT</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>GTAAGCTCCTGGGGCTTCACTCGTTTGCCGCCTTCCTGCAACTCGAATTATTTAGAGTCTATGAATAATTTCTTAAGCATAGCAGGAGTGGAGTAGGGATTATGCCAGCCAGGCCTTGATTTTGGCTTCCATACCAGCGGCATCGAGGCCGAGTTCGGCGCGCATTTCTTCCTGAGTTCCTTGCGGAATAAAGAAGTCCGGCAGGCCAATGTTCAGCACGGGTACTGGTTTACGATGGGCCATCAGCACTTCGTTCACGCCGCTGCCTGCGCCGCCCATAATGGCGTTTTCTTCTACGGTGACCAGCGCTTCATGGCTGGCGGCCATTTCCAGAATTAACGCTTCATCAAGCGGTTTCACAAAACGCATATCGACCAGCGTGGCGTTCAGCGATTCGGCGACTTTCGCCGCTTCTGGCATCAGCGTACCAAAGTTAAGGATCGCCAGTTTCTCGCCACGACGCTTCACAATGCCTTTGCCAATTGGTAGTTTTTCCAGCGGCGTCAGTTCCACGCCGACCGCGTTGCCACGCGGGTAGCGCACCGCTGACGGGCCATCGTTATAGTGATAGCCGGTATAGAGCATCTGGCGACATTCGTTTTCATCGCTCGGGGTCATAATGACCATTTCCGGTATGCAGCGCAGGTAAGAGAGATCAAAAGCACCCTGATGGGTTTGACCGTCAGCACCAACAATGCCCGCGCGGTCGATGGCGAACAGGACCGGAAGCTTTTGAATCGCCACGTCATGCAGCACCTGATCATAGGCGCGTTGCAGGAAAGTGGAGTAAATCGCGACAATGGGTTTGTACCCACCAATCGCCAGACCCGCAGCAAAGGTCACCGCGTGTTGCTCGGCAATTGCCACGTCGAAGTAGCGATCCGGGAATTTACGTGAAAACTCGACCATGCCGGAACCTTCACGCATCGCCGGAGTAATCGCCATCAGCTTGTTGTCTTTCGCTGCCGTTTCGCACAACCAGTCGCCAAAGATTTTTGAATAGCTCGGCAAACCGCCGCTACTTTTCGG</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>CAAAGTCGGGAAACGCGAAGGTCGGTTTTTCCTAAGGGGTTGTATTGCATGCTGCCACTCCTGCTATACTCGTCATACTTCAAGTTGCATGTGCTGCGGCTGCATTCGTTCACCCCAGTCACTTACTTATGTAAGCTCCTGGGGCTTCACTCGTTTGCCGCCTTCCTGCAACTCGAATTATTTAGAGTCTATGAATAATTTCTTAAGCATAGCAGGAGTGGAGTAGGGATTATGCCAGCCAGGCCTTGATTTTGGCTTCCATACCAGCGGCATCGAGGCCGAGTTCGGCGCGCATTTCTTCCTGAGTTCCTTGCGGAATAAAGAAGTCCGGCAGGCCAATGTTCAGCACGGGTACTGGTTTACGATGGGCCATCAGCACTTCGTTCACGCCGCTGCCTGCGCCGCCCATAATGGCGTTTTCTTCTACGGTGACCAGCGCTTCATGGCTGGCGGCCATTTCCAGAATTAACGCTTCATCAAGCGGTTTCACAAAACGCATATCGACCAGCGTGGCGTTCAGCGATTCGGCGACTTTCGCCGCTTCTGGCATCAGCGTACCAAAGTTAAGGATCGCCAGTTTCTCGCCACGACGCTTCACAATGCCTTTGCCAATTGGTAGTTTTTCCAGCGGCGTCAGTTCCACGCCGACCGCGTTGCCACGCGGGTAGCGCACCGCTGACGGGCCATCGTTATAGTGATAGCCGGTATAGAGCATCTGGCGACATTCGTTTTCATCGCTCGGGGTCATAATGACCATTTCCGGTATGCAGCGCAGGTAAGAGAGATCAAAAGCACCCTGATGGGTTTGACCGTCAGCACCAACAATGCCCGCGCGGTCGATGGCGAACAGGACCGGAAGCTTTTGAATCGCCACGTCATGCAGCACCTGATCATAGGCGCGTTGCAGGAAAGTGGAGTAAATCGCGACAATGGGTTTGTACCCACCAATCGCCAGACCCGCAGCAAAGGTCACCGCGTGTTGCTCGGCAATTGCCACGTCGAAGTAGCGATCCGGGAATTTACGTGAAAACTCGACCATGCCGGAACCTTCACGCATCGCCGGAGTAATCGCCATCAGCTTGTTGTCTTTCGCTGCCGTTTCGCACAACCAGTCGCCAAAGATTTTTGAATAGCTCGGCAAACCGCCGCTACTTTTCGG</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTC</t>
+          <t>GTAAGCTCCTGGGGCTTCACTCGTTTGCCGCCTTCCTGCAACTCGAATTATTTAGAGTCTATGAATAATTTCTTAAGCATAGCAGGAGTGGAGTAGGGATTATGCCAGCCAGGCCTTGATTTTGGCTTCCATACCAGCGGCATCGAGGCCGAGTTCGGCGCGCATTTCTTCCTGAGTTCCTTGCGGAATAAAGAAGTCCGGCAGGCCAATGTTCAGCACGGGTACTGGTTTACGATGGGCCATCAGCACTTCGTTCACGCCGCTGCCTGCGCCGCCCATAATGGCGTTTTCTTCTACGGTGACCAGCGCTTCATGGCTGGCGGCCATTTCCAGAATTAACGCTTCATCAAGCGGTTTCACAAAACGCATATCGACCAGCGTGGCGTTCAGCGATTCGGCGACTTTCGCCGCTTCTGGCATCAGCGTACCAAAGTTAAGGATCGCCAGTTTCTCGCCACGACGCTTCACAATGCCTTTGCCAATTGGTAGTTTTTCCAGCGGCGTCAGTTCCACGCCGACCGCGTTGCCACGCGGGTAGCGCACCGCTGACGGGCCATCGTTATAGTGATAGCCGGTATAGAGCATCTGGCGACATTCGTTTTCATCGCTCGGGGTCATAATGACCATTTCCGGTATGCAGCGCAGGTAAGAGAGATCAAAAGCACCCTGATGGGTTTGACCGTCAGCACCAACAATGCCCGCGCGGTCGATGGCGAACAGGACCGGAAGCTTTTGAATCGCCACGTCATGCAGCACCTGATCATAGGCGCGTTGCAGGAAAGTGGAGTAAATCGCGACAATGGGTTTGTACCCACCAATCGCCAGACCCGCAGCAAAGGTCACCGCGTGTTGCTCGGCAATTGCCACGTCGAAGTAGCGATCCGGGAATTTACGTGAAAACTCGACCATGCCGGAACCTTCACGCATCGCCGGAGTAATCGCCATCAGCTTGTTGTCTTTCGCTGCCGTTTCGCACAACCAGTCGCCAAAGATTTTTGAATAGCTCGGCAAACCGCCGCTACTTTTCGGGTGCAAACCTTTCAAGCCGA</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1070</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="3">
@@ -1165,36 +861,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del</t>
+          <t>aceE_del</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
+          <t>GCGTCACAGACATGAAATTGGT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACCGCGGACAGGCCTTCACG</t>
+          <t>TCGGCTTGAAAGGTTTGCACGGGTTATTCCTTATCTATCT</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>GCGTCACAGACATGAAATTGGTAAGACCAATTGACTTCGGCAAGTGGCTTAAGACAGGAACTCATGGCCTACAGCAAAATCCGCCAACCAAAACTCTCCGATGTGATTGAGCAGCAACTGGAGTTTTTGATCCTCGAAGGCACTCTCCGCCCGGGCGAAAAACTCCCACCGGAACGCGAACTGGCAAAACAGTTTGACGTCTCCCGTCCCTCCTTGCGTGAGGCGATTCAACGTCTCGAAGCGAAGGGCTTGTTGCTTCGTCGCCAGGGTGGCGGCACTTTTGTCCAGAGCAGCCTATGGCAAAGCTTCAGCGATCCGCTGGTGGAGCTGCTCTCCGACCATCCTGAGTCACAGTATGACTTGCTCGAAACACGACACGCCCTGGAAGGTATCGCCGCTTATTACGCCGCGCTGCGTAGTACCGATGAAGACAAGGAACGCATCCGTGAACTCCACCACGCCATAGAGCTGGCGCAGCAGTCTGGCGATCTGGACGCGGAATCAAACGCCGTACTCCAGTATCAGATTGCCGTCACCGAAGCGGCCCACAATGTGGTTCTGCTTCATCTGCTAAGGTGTATGGAGCCGATGTTGGCCCAGAATGTCCGCCAGAACTTCGAATTGCTCTATTCGCGTCGCGAGATGCTGCCGCTGGTGAGTAGTCACCGCACCCGCATATTTGAAGCGATTATGGCCGGTAAGCCGGAAGAAGCGCGCGAAGCATCGCATCGCCATCTGGCCTTTATCGAAGAAATTTTGCTCGACAGAAGTCGTGAAGAGAGCCGCCGTGAGCGTTCTCTGCGTCGTCTGGAGCAACGAAAGAATTAGTGATTTTTCTGGTAAAAATTATCCAGAAGATGTTGTAAATCAAGCGCATATAAAAGCGCGGCAACTAAACGTAGAACCTGTCTTATTGAGCTTTCCGGCGAGAGTTCAATGGGACAGGTTCCAGAAAACTCAACGTTATTAGATAGATAAGGAATAACCC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>TACGTAAAGTCTACATTTGTGCATAGTTACAACTTTGAAACGTTATATATGTCAAGTTGTTAAAATGTGCACAGTTTCATGATTTCAATCAAAACCTGTATGGACATAAGGTGAATACTTTGTTACTTTAGCGTCACAGACATGAAATTGGTAAGACCAATTGACTTCGGCAAGTGGCTTAAGACAGGAACTCATGGCCTACAGCAAAATCCGCCAACCAAAACTCTCCGATGTGATTGAGCAGCAACTGGAGTTTTTGATCCTCGAAGGCACTCTCCGCCCGGGCGAAAAACTCCCACCGGAACGCGAACTGGCAAAACAGTTTGACGTCTCCCGTCCCTCCTTGCGTGAGGCGATTCAACGTCTCGAAGCGAAGGGCTTGTTGCTTCGTCGCCAGGGTGGCGGCACTTTTGTCCAGAGCAGCCTATGGCAAAGCTTCAGCGATCCGCTGGTGGAGCTGCTCTCCGACCATCCTGAGTCACAGTATGACTTGCTCGAAACACGACACGCCCTGGAAGGTATCGCCGCTTATTACGCCGCGCTGCGTAGTACCGATGAAGACAAGGAACGCATCCGTGAACTCCACCACGCCATAGAGCTGGCGCAGCAGTCTGGCGATCTGGACGCGGAATCAAACGCCGTACTCCAGTATCAGATTGCCGTCACCGAAGCGGCCCACAATGTGGTTCTGCTTCATCTGCTAAGGTGTATGGAGCCGATGTTGGCCCAGAATGTCCGCCAGAACTTCGAATTGCTCTATTCGCGTCGCGAGATGCTGCCGCTGGTGAGTAGTCACCGCACCCGCATATTTGAAGCGATTATGGCCGGTAAGCCGGAAGAAGCGCGCGAAGCATCGCATCGCCATCTGGCCTTTATCGAAGAAATTTTGCTCGACAGAAGTCGTGAAGAGAGCCGCCGTGAGCGTTCTCTGCGTCGTCTGGAGCAACGAAAGAATTAGTGATTTTTCTGGTAAAAATTATCCAGAAGATGTTGTAAATCAAGCGCATATAAAAGCGCGGCAACTAAACGTAGAACCTGTCTTATTGAGCTTTCCGGCGAGAGTTCAATGGGACAGGTTCCAGAAAACTCAACGTTATTAGATAGATAAGGAATAACCC</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTC</t>
+          <t>GCGTCACAGACATGAAATTGGTAAGACCAATTGACTTCGGCAAGTGGCTTAAGACAGGAACTCATGGCCTACAGCAAAATCCGCCAACCAAAACTCTCCGATGTGATTGAGCAGCAACTGGAGTTTTTGATCCTCGAAGGCACTCTCCGCCCGGGCGAAAAACTCCCACCGGAACGCGAACTGGCAAAACAGTTTGACGTCTCCCGTCCCTCCTTGCGTGAGGCGATTCAACGTCTCGAAGCGAAGGGCTTGTTGCTTCGTCGCCAGGGTGGCGGCACTTTTGTCCAGAGCAGCCTATGGCAAAGCTTCAGCGATCCGCTGGTGGAGCTGCTCTCCGACCATCCTGAGTCACAGTATGACTTGCTCGAAACACGACACGCCCTGGAAGGTATCGCCGCTTATTACGCCGCGCTGCGTAGTACCGATGAAGACAAGGAACGCATCCGTGAACTCCACCACGCCATAGAGCTGGCGCAGCAGTCTGGCGATCTGGACGCGGAATCAAACGCCGTACTCCAGTATCAGATTGCCGTCACCGAAGCGGCCCACAATGTGGTTCTGCTTCATCTGCTAAGGTGTATGGAGCCGATGTTGGCCCAGAATGTCCGCCAGAACTTCGAATTGCTCTATTCGCGTCGCGAGATGCTGCCGCTGGTGAGTAGTCACCGCACCCGCATATTTGAAGCGATTATGGCCGGTAAGCCGGAAGAAGCGCGCGAAGCATCGCATCGCCATCTGGCCTTTATCGAAGAAATTTTGCTCGACAGAAGTCGTGAAGAGAGCCGCCGTGAGCGTTCTCTGCGTCGTCTGGAGCAACGAAAGAATTAGTGATTTTTCTGGTAAAAATTATCCAGAAGATGTTGTAAATCAAGCGCATATAAAAGCGCGGCAACTAAACGTAGAACCTGTCTTATTGAGCTTTCCGGCGAGAGTTCAATGGGACAGGTTCCAGAAAACTCAACGTTATTAGATAGATAAGGAATAACCCGTGCAAACCTTTCAAGCCGA</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1070</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="4">
@@ -1203,36 +899,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins</t>
+          <t>pntA_promoter_sub</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
+          <t>CGAGGTTTGTGCCGTAAAGC</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACCGCGGACAGGCCTTCACG</t>
+          <t>TCGGCTTGAAAGGTTTGCACATGCGAATTGGCATACCAAGAG</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>CGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCAT</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>ACCTGAATCGGCGGTGCCGGCCAGGTAATTTCGCCCGCACGGATCACGGTCACGCCGCGAATCACCACATCATCAAAATCAACAGTGATATTGCCGTCTTTCTCTTTGCACAACAGTTTCAGCAGATTAACGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCAT</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTC</t>
+          <t>CGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCATGTGCAAACCTTTCAAGCCGA</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1070</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="5">
@@ -1241,226 +937,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub</t>
+          <t>Cgl1452_ins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
+          <t>CACTGCGCGGGATTTTATGG</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACCGCGGACAGGCCTTCACG</t>
+          <t>TCGGCTTGAAAGGTTTGCACCATGTGAACGCCTGACCAGG</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>CACTGCGCGGGATTTTATGGAGATTCACTTACCTAAAGATTTACGTGAACTGTGCGATCTCGATAGCTTAAAACTGGAATCCGCCAGCTTTGTCGATGAAAAATTGCGGGCGCTACACTCCGATATTTTATGGTCGGTAAAGACCCGCGAAGGCGATGGCTATATCTATGTGGTGATTGAACATCAGAGCCGCGAGGACATTCATATGGCCTTTCGCCTGATGCGCTATTCCATGGCGGTGATGTAGCGCCATATAGAGCATGATAAACGCCAGCCGCTACCGTTGGTCATCCCGATGCTATTTTATCACGGTAGCCGTAGTCCTTACCCCTGGTCCCTGTGCTGGCTGGACGAATTTGCCGACCCGACTACCGCACGGAAGCTTTATAACGCCGCGTTCCCGCTGGTGGATGTTACTGTCGTGCCAGACGACGAGATTGTGCAGCATCGCAGAGTCGCCCTGTTGGAGTTGATCCAAAAGCATATTCGCCAGCGCGATCTGATGGGGCTTATCGATCAACTGGTAGTATTACTGGTTACAGAGTGTGCTAATGACAGCCAGATAACTGCGCTGTTAAATTACATTTTACTGACTGGCGATGAAGCGCGTTTTAATGAGTTTATCAGTGAACTTACCCGTCGAATGCCACAACACAGGGAGCGAATAATGACGATTGCAGAGCGAATTCATAATGATGGATATATAAAAGGGGAGCAGCGCATTCTTCGATTGTTGTTGCAGAATGGGGCGGATCCTGAATGGATACAAAAGATTACCGGACTTTCGGCAGAGCAAATGCAGGCATTAAGGCAGCCCTTGCCTGAGCGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATG</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>CGGGTGAGAATGGTTTTGTTAGTCGCTAAAGTCAGGCCATCTTTTTCAACAGGTGATGGATCGCCATGACAAACTTCACGACCAGCACGCCGCATGATGCATTATTTAAAACCTTTCTCACGCACCCTGACACTGCGCGGGATTTTATGGAGATTCACTTACCTAAAGATTTACGTGAACTGTGCGATCTCGATAGCTTAAAACTGGAATCCGCCAGCTTTGTCGATGAAAAATTGCGGGCGCTACACTCCGATATTTTATGGTCGGTAAAGACCCGCGAAGGCGATGGCTATATCTATGTGGTGATTGAACATCAGAGCCGCGAGGACATTCATATGGCCTTTCGCCTGATGCGCTATTCCATGGCGGTGATGTAGCGCCATATAGAGCATGATAAACGCCAGCCGCTACCGTTGGTCATCCCGATGCTATTTTATCACGGTAGCCGTAGTCCTTACCCCTGGTCCCTGTGCTGGCTGGACGAATTTGCCGACCCGACTACCGCACGGAAGCTTTATAACGCCGCGTTCCCGCTGGTGGATGTTACTGTCGTGCCAGACGACGAGATTGTGCAGCATCGCAGAGTCGCCCTGTTGGAGTTGATCCAAAAGCATATTCGCCAGCGCGATCTGATGGGGCTTATCGATCAACTGGTAGTATTACTGGTTACAGAGTGTGCTAATGACAGCCAGATAACTGCGCTGTTAAATTACATTTTACTGACTGGCGATGAAGCGCGTTTTAATGAGTTTATCAGTGAACTTACCCGTCGAATGCCACAACACAGGGAGCGAATAATGACGATTGCAGAGCGAATTCATAATGATGGATATATAAAAGGGGAGCAGCGCATTCTTCGATTGTTGTTGCAGAATGGGGCGGATCCTGAATGGATACAAAAGATTACCGGACTTTCGGCAGAGCAAATGCAGGCATTAAGGCAGCCCTTGCCTGAGCGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATG</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTC</t>
+          <t>CACTGCGCGGGATTTTATGGAGATTCACTTACCTAAAGATTTACGTGAACTGTGCGATCTCGATAGCTTAAAACTGGAATCCGCCAGCTTTGTCGATGAAAAATTGCGGGCGCTACACTCCGATATTTTATGGTCGGTAAAGACCCGCGAAGGCGATGGCTATATCTATGTGGTGATTGAACATCAGAGCCGCGAGGACATTCATATGGCCTTTCGCCTGATGCGCTATTCCATGGCGGTGATGTAGCGCCATATAGAGCATGATAAACGCCAGCCGCTACCGTTGGTCATCCCGATGCTATTTTATCACGGTAGCCGTAGTCCTTACCCCTGGTCCCTGTGCTGGCTGGACGAATTTGCCGACCCGACTACCGCACGGAAGCTTTATAACGCCGCGTTCCCGCTGGTGGATGTTACTGTCGTGCCAGACGACGAGATTGTGCAGCATCGCAGAGTCGCCCTGTTGGAGTTGATCCAAAAGCATATTCGCCAGCGCGATCTGATGGGGCTTATCGATCAACTGGTAGTATTACTGGTTACAGAGTGTGCTAATGACAGCCAGATAACTGCGCTGTTAAATTACATTTTACTGACTGGCGATGAAGCGCGTTTTAATGAGTTTATCAGTGAACTTACCCGTCGAATGCCACAACACAGGGAGCGAATAATGACGATTGCAGAGCGAATTCATAATGATGGATATATAAAAGGGGAGCAGCGCATTCTTCGATTGTTGTTGCAGAATGGGGCGGATCCTGAATGGATACAAAAGATTACCGGACTTTCGGCAGAGCAAATGCAGGCATTAAGGCAGCCCTTGCCTGAGCGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATGGTGCAAACCTTTCAAGCCGA</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_15to19_sub</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>GAAGATGAGTTCTGGCTCACCGCGGACAGGCCTTCACG</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTC</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_90_ins</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>GAAGATGAGTTCTGGCTCACCGCGGACAGGCCTTCACG</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTC</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CAAGGCCTGTCGCAGTTTTC</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>GAAGATGAGTTCTGGCTCACAACGCGAGAAACGGCAAAAT</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTT</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CCTGGGTGCTGAAGTGATGGCAGCCAGATTTGCCCTGCTCAATGAGTTGGGGCCGAAAATCTATGAGGCTTACACCACGATCGCCCCGGAATCCCGGCCAGCTGCGGTGAATTACAAAACCACCATCGATCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTT</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>CAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTGTGAGCCAGAACTCATCTTC</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>GAAGATGAGTTCTGGCTCACCGCGGACAGGCCTTCACG</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTC</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CAAGGCCTGTCGCAGTTTTC</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GAAGATGAGTTCTGGCTCACAACGCGAGAAACGGCAAAAT</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>CAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTT</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>CCTGGGTGCTGAAGTGATGGCAGCCAGATTTGCCCTGCTCAATGAGTTGGGGCCGAAAATCTATGAGGCTTACACCACGATCGCCCCGGAATCCCGGCCAGCTGCGGTGAATTACAAAACCACCATCGATCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTT</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>CAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTGTGAGCCAGAACTCATCTTC</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1069</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>
@@ -1474,7 +980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,35 +1031,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub</t>
+          <t>dxs_sub_933_C_T_sub</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAATTATTTCCGTGCGCGTTGGT</t>
+          <t>ACTACCTCATTACTGGATGCAAACAACCGCTGGAGGGATC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
+          <t>CAGTCACTCGATACCTCGGC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>ACTACCTCATTACTGGATGCAAACAACCGCTGGAGGGATCAAATTTAGGCACGGCGTGGAAAGTGATCGGGTCTTTTTCTGCCGGTTCATAACCACGACCTTTTTTGGTCATGATATGCAGGAACTGCGGGCCTTTCAGGTCGCGCATGTTCTTTAGCGTGGTGATAAGCCCCAGCACATCGTGACCGTCCACCGGGCCGATGTAGTTAAAGCCCAGCTCTTCAAACAACGTGCCAGGCACTACCATGCCTTTAATATGTTCTTCGGTGCGTTTGAGCAGCTCTTTAATTGGCGGCACGCCAGAGAAAACTTTTTTCCCGCCTTCGCGCAGTGAAGAGTAAAGCTTACCGGAAAGCAGCTGTGCCAGATGGTTGTTGAGCGCGCCGACATTTTCGGAAATCGACATTTCATTGTCGTTGAGAATCACCAGCATATCAGGACGGATATCGCCCGCGTGATTCATCGCTTCAAACGCCATGCCTGCGGTAATCGCGCCATCGCCAATGACACAGACGGTGCGGCGATTTTTGCCTTCTTTTTCGGCAGCAACCGCAATACCAATTCCGGCACTGATGGAGGTTGATGAATGCCCGACGCTTAATACGTCATATTCGCTTTCGCCGCGCCACGGGAACGGGTGCAGACCGCCTTTCTGACGGATGGTGCCGATTTTGTCGCGGCGTCCGGTCAAAATTTTATGCGGATAAGCCTGATGCCCCACATCCCAAATCAATTGGTCAAACGGGGTGTTGTAGACATAGTGCAGCGCCACGGTCAGTTCGACCGTGCCCAGCCCGGAGGCGAAGTGCCCGCTGGAACGGCTCACGCTGTCGAGTAAATAGCGGCGCAGTTCGTCGCAGAGTTTCGGTAAACTCTCTTTCGGCAACAGTCGTAACTCCTGGGTGGAGTCGACCAGTGCCAGGGTCGGGTATTTGGCAATATCAAAACTCATCAGGGGCCTATTAATACTTATTGTTTATTTATTACGCTGGATGATGTAGTCCGCTAGCGCTTCCAGTGCCGAGGTATCGAGTGACTG</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1008</v>
+        <v>1039</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>TTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCT</t>
+          <t>AAACAACCGCTGGAGGGATCAAATTTAGGCACGGCGTGGAAAGTGATCGGGTCTTTTTCTGCCGGTTCATAACCACGACCTTTTTTGGTCATGATATGCAGGAACTGCGGGCCTTTCAGGTCGCGCATGTTCTTTAGCGTGGTGATAAGCCCCAGCACATCGTGACCGTCCACCGGGCCGATGTAGTTAAAGCCCAGCTCTTCAAACAACGTGCCAGGCACTACCATGCCTTTAATATGTTCTTCGGTGCGTTTGAGCAGCTCTTTAATTGGCGGCACGCCAGAGAAAACTTTTTTCCCGCCTTCGCGCAGTGAAGAGTAAAGCTTACCGGAAAGCAGCTGTGCCAGATGGTTGTTGAGCGCGCCGACATTTTCGGAAATCGACATTTCATTGTCGTTGAGAATCACCAGCATATCAGGACGGATATCGCCCGCGTGATTCATCGCTTCAAACGCCATGCCTGCGGTAATCGCGCCATCGCCAATGACACAGACGGTGCGGCGATTTTTGCCTTCTTTTTCGGCAGCAACCGCAATACCAATTCCGGCACTGATGGAGGTTGATGAATGCCCGACGCTTAATACGTCATATTCGCTTTCGCCGCGCCACGGGAACGGGTGCAGACCGCCTTTCTGACGGATGGTGCCGATTTTGTCGCGGCGTCCGGTCAAAATTTTATGCGGATAAGCCTGATGCCCCACATCCCAAATCAATTGGTCAAACGGGGTGTTGTAGACATAGTGCAGCGCCACGGTCAGTTCGACCGTGCCCAGCCCGGAGGCGAAGTGCCCGCTGGAACGGCTCACGCTGTCGAGTAAATAGCGGCGCAGTTCGTCGCAGAGTTTCGGTAAACTCTCTTTCGGCAACAGTCGTAACTCCTGGGTGGAGTCGACCAGTGCCAGGGTCGGGTATTTGGCAATATCAAAACTCATCAGGGGCCTATTAATACTTATTGTTTATTTATTACGCTGGATGATGTAGTCCGCTAGCGCTTCCAGTGCCGAGGTATCGAGTGACTGTTCAGCCAGTTGTTTCAGCGACTGACGGGCATCGTCGATCAGATCCCGGGCTTTCTTCCGGGCTTGCTCAAGACCCAGAAGTGCAGGGTAGGTACTTTTACCAAGTTGCTGGTCGGCACCCTGGCGTTTT</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>TTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>AAACAACCGCTGGAGGGATCAAATTTAGGCACGGCGTGGAAAGTGATCGGGTCTTTTTCTGCCGGTTCATAACCACGACCTTTTTTGGTCATGATATGCAGGAACTGCGGGCCTTTCAGGTCGCGCATGTTCTTTAGCGTGGTGATAAGCCCCAGCACATCGTGACCGTCCACCGGGCCGATGTAGTTAAAGCCCAGCTCTTCAAACAACGTGCCAGGCACTACCATGCCTTTAATATGTTCTTCGGTGCGTTTGAGCAGCTCTTTAATTGGCGGCACGCCAGAGAAAACTTTTTTCCCGCCTTCGCGCAGTGAAGAGTAAAGCTTACCGGAAAGCAGCTGTGCCAGATGGTTGTTGAGCGCGCCGACATTTTCGGAAATCGACATTTCATTGTCGTTGAGAATCACCAGCATATCAGGACGGATATCGCCCGCGTGATTCATCGCTTCAAACGCCATGCCTGCGGTAATCGCGCCATCGCCAATGACACAGACGGTGCGGCGATTTTTGCCTTCTTTTTCGGCAGCAACCGCAATACCAATTCCGGCACTGATGGAGGTTGATGAATGCCCGACGCTTAATACGTCATATTCGCTTTCGCCGCGCCACGGGAACGGGTGCAGACCGCCTTTCTGACGGATGGTGCCGATTTTGTCGCGGCGTCCGGTCAAAATTTTATGCGGATAAGCCTGATGCCCCACATCCCAAATCAATTGGTCAAACGGGGTGTTGTAGACATAGTGCAGCGCCACGGTCAGTTCGACCGTGCCCAGCCCGGAGGCGAAGTGCCCGCTGGAACGGCTCACGCTGTCGAGTAAATAGCGGCGCAGTTCGTCGCAGAGTTTCGGTAAACTCTCTTTCGGCAACAGTCGTAACTCCTGGGTGGAGTCGACCAGTGCCAGGGTCGGGTATTTGGCAATATCAAAACTCATCAGGGGCCTATTAATACTTATTGTTTATTTATTACGCTGGATGATGTAGTCCGCTAGCGCTTCCAGTGCCGAGGTATCGAGTGACTG</t>
         </is>
       </c>
     </row>
@@ -1563,35 +1069,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del</t>
+          <t>aceE_del</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAATTTCCGTGCGCGTTGGT</t>
+          <t>ACTACCTCATTACTGGATGCGAGGTAAAAGAATAATGGCTATCGA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
+          <t>TTAACACCAAACTCGCGTGC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>ACTACCTCATTACTGGATGCGAGGTAAAAGAATAATGGCTATCGAAATCAAAGTACCGGACATCGGGGCTGATGAAGTTGAAATCACCGAGATCCTGGTCAAAGTGGGCGACAAAGTTGAAGCCGAACAGTCGCTGATCACCGTAGAAGGCGACAAAGCCTCTATGGAAGTTCCGTCTCCGCAGGCGGGTATCGTTAAAGAGATCAAAGTCTCTGTTGGCGATAAAACCCAGACCGGCGCACTGATTATGATTTTCGATTCCGCCGACGGTGCAGCAGACGCTGCACCTGCTCAGGCAGAAGAGAAGAAAGAAGCAGCTCCGGCAGCAGCACCAGCGGCTGCGGCGGCAAAAGACGTTAACGTTCCGGATATCGGCAGCGACGAAGTTGAAGTGACCGAAATCCTGGTGAAAGTTGGCGATAAAGTTGAAGCTGAACAGTCGCTGATCACCGTAGAAGGCGACAAGGCTTCTATGGAAGTTCCGGCTCCGTTTGCTGGCACCGTGAAAGAGATCAAAGTGAACGTGGGTGACAAAGTGTCTACCGGCTCGCTGATTATGGTCTTCGAAGTCGCGGGTGAAGCAGGCGCGGCAGCTCCGGCCGCTAAACAGGAAGCAGCTCCGGCAGCGGCCCCTGCACCAGCGGCTGGCGTGAAAGAAGTTAACGTTCCGGATATCGGCGGTGACGAAGTTGAAGTGACTGAAGTGATGGTGAAAGTGGGCGACAAAGTTGCCGCTGAACAGTCACTGATCACCGTAGAAGGCGACAAAGCTTCTATGGAAGTTCCGGCGCCGTTTGCAGGCGTCGTGAAGGAACTGAAAGTCAACGTTGGCGATAAAGTGAAAACTGGCTCGCTGATTATGATCTTCGAAGTTGAAGGCGCAGCGCCTGCGGCAGCTCCTGCGAAACAGGAAGCGGCAGCGCCGGCACCGGCAGCAAAAGCTGAAGCCCCGGCAGCAGCACCAGCTGCGAAAGCGGAAGGCAAATCTGAATTTGCTGAAAACGACGCTTATGTTCACGCGACTCCGCTGATCCGCCGTCTGGCACGCGAGTTTGGTGTTAA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1006</v>
+        <v>1062</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCT</t>
+          <t>GAGGTAAAAGAATAATGGCTATCGAAATCAAAGTACCGGACATCGGGGCTGATGAAGTTGAAATCACCGAGATCCTGGTCAAAGTGGGCGACAAAGTTGAAGCCGAACAGTCGCTGATCACCGTAGAAGGCGACAAAGCCTCTATGGAAGTTCCGTCTCCGCAGGCGGGTATCGTTAAAGAGATCAAAGTCTCTGTTGGCGATAAAACCCAGACCGGCGCACTGATTATGATTTTCGATTCCGCCGACGGTGCAGCAGACGCTGCACCTGCTCAGGCAGAAGAGAAGAAAGAAGCAGCTCCGGCAGCAGCACCAGCGGCTGCGGCGGCAAAAGACGTTAACGTTCCGGATATCGGCAGCGACGAAGTTGAAGTGACCGAAATCCTGGTGAAAGTTGGCGATAAAGTTGAAGCTGAACAGTCGCTGATCACCGTAGAAGGCGACAAGGCTTCTATGGAAGTTCCGGCTCCGTTTGCTGGCACCGTGAAAGAGATCAAAGTGAACGTGGGTGACAAAGTGTCTACCGGCTCGCTGATTATGGTCTTCGAAGTCGCGGGTGAAGCAGGCGCGGCAGCTCCGGCCGCTAAACAGGAAGCAGCTCCGGCAGCGGCCCCTGCACCAGCGGCTGGCGTGAAAGAAGTTAACGTTCCGGATATCGGCGGTGACGAAGTTGAAGTGACTGAAGTGATGGTGAAAGTGGGCGACAAAGTTGCCGCTGAACAGTCACTGATCACCGTAGAAGGCGACAAAGCTTCTATGGAAGTTCCGGCGCCGTTTGCAGGCGTCGTGAAGGAACTGAAAGTCAACGTTGGCGATAAAGTGAAAACTGGCTCGCTGATTATGATCTTCGAAGTTGAAGGCGCAGCGCCTGCGGCAGCTCCTGCGAAACAGGAAGCGGCAGCGCCGGCACCGGCAGCAAAAGCTGAAGCCCCGGCAGCAGCACCAGCTGCGAAAGCGGAAGGCAAATCTGAATTTGCTGAAAACGACGCTTATGTTCACGCGACTCCGCTGATCCGCCGTCTGGCACGCGAGTTTGGTGTTAACCTTGCGAAAGTGAAGGGCACTGGCCGTAAAGGTCGTATCCTGCGCGAAGACGTTCAGGCTTACGTGAAAGAAGCTATCAAACGTGCAGAAGCAGCTCCGGCAGCGACTGGCGGTGGTATCCCTGGCATG</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>GAGGTAAAAGAATAATGGCTATCGAAATCAAAGTACCGGACATCGGGGCTGATGAAGTTGAAATCACCGAGATCCTGGTCAAAGTGGGCGACAAAGTTGAAGCCGAACAGTCGCTGATCACCGTAGAAGGCGACAAAGCCTCTATGGAAGTTCCGTCTCCGCAGGCGGGTATCGTTAAAGAGATCAAAGTCTCTGTTGGCGATAAAACCCAGACCGGCGCACTGATTATGATTTTCGATTCCGCCGACGGTGCAGCAGACGCTGCACCTGCTCAGGCAGAAGAGAAGAAAGAAGCAGCTCCGGCAGCAGCACCAGCGGCTGCGGCGGCAAAAGACGTTAACGTTCCGGATATCGGCAGCGACGAAGTTGAAGTGACCGAAATCCTGGTGAAAGTTGGCGATAAAGTTGAAGCTGAACAGTCGCTGATCACCGTAGAAGGCGACAAGGCTTCTATGGAAGTTCCGGCTCCGTTTGCTGGCACCGTGAAAGAGATCAAAGTGAACGTGGGTGACAAAGTGTCTACCGGCTCGCTGATTATGGTCTTCGAAGTCGCGGGTGAAGCAGGCGCGGCAGCTCCGGCCGCTAAACAGGAAGCAGCTCCGGCAGCGGCCCCTGCACCAGCGGCTGGCGTGAAAGAAGTTAACGTTCCGGATATCGGCGGTGACGAAGTTGAAGTGACTGAAGTGATGGTGAAAGTGGGCGACAAAGTTGCCGCTGAACAGTCACTGATCACCGTAGAAGGCGACAAAGCTTCTATGGAAGTTCCGGCGCCGTTTGCAGGCGTCGTGAAGGAACTGAAAGTCAACGTTGGCGATAAAGTGAAAACTGGCTCGCTGATTATGATCTTCGAAGTTGAAGGCGCAGCGCCTGCGGCAGCTCCTGCGAAACAGGAAGCGGCAGCGCCGGCACCGGCAGCAAAAGCTGAAGCCCCGGCAGCAGCACCAGCTGCGAAAGCGGAAGGCAAATCTGAATTTGCTGAAAACGACGCTTATGTTCACGCGACTCCGCTGATCCGCCGTCTGGCACGCGAGTTTGGTGTTAA</t>
         </is>
       </c>
     </row>
@@ -1601,35 +1107,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins</t>
+          <t>pntA_promoter_sub</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGTTATTTCCGTGCGCGTTGG</t>
+          <t>ACTACCTCATTACTGGATGCGTGATAGTGGGATAAACACCT</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
+          <t>ACTTGGTGATGCGGTAGTCG</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>ACTACCTCATTACTGGATGCGTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGT</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>GTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCT</t>
+          <t>GTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGTTCTGAAGTCGGTCGCTTCTTTGAAACCCAGTCATCAAAAGGCGGGCGTTACACCGTCACGCTCCCGGATGGCACTAAAGTCGAAGAACTGAACAAAGCGACCGCAGCGATGATGGTCCCGTTCGACAGCA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>GTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>GTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGT</t>
         </is>
       </c>
     </row>
@@ -1639,225 +1145,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub</t>
+          <t>Cgl1452_ins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAATTTCCGTGCGCGTTGGT</t>
+          <t>ACTACCTCATTACTGGATGCGCATCCGGCATGAACAAAGC</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
+          <t>CGATGTCGCTGGCGTTAATG</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>ACTACCTCATTACTGGATGCGCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACGGCCTCGCCAATTTGCTTCAGTGCTTCGCGATAGGTTTCGCTGAGCGGCAAAGCGCAGTTGATGCGCAGACAATTACGGTATTTGCCGGAAGCTGAGAAAATCGAGCCTGCCGCCACCTGGATTTTCATGCGGCACAGCTGCCGCGCGACGCAGACCATATCGACCTGTTCAGGCAATTCTATCCACAGTAAAAATCCGCCTTTCGGGCGCGTAATACAGATTTCGCAGGGAAAATATTCCCGTATCCAGCAGGTATAAAGCGCCAAATTGCGCTGATAGATCTGCCGCATCCGCCGGATATGGCGATGATAGTGACCTTCCAGCACAAACGTTGCCGCCGCCATTTGCGTGGACGGCACATTAAAGCTGCTGATGGCGTATTTCATATGCATCAGTTTATCGTGATAACGCCCCGGTGCGACCCAACCCACGCGCAGGCCTGGTGCAATACTTTTACTGAACGAGCTGCACAACAGCACTCGCCCGTCGATATCCCAGGAATGAATGGTCCGCGGGCGCGGATACTCCGTCGCCAGTTCGCCATAGACATCATCTTCAAAAATCACAATATCATGACGCTGAGCGAGAGAGAGAACGGCCCGTTTGCGCGCGTCCGGCATAATAAATCCCAGCGGATTATTACAGTTTGGCACCAGAATGATGCCTTTAATCGGCCACTGTTCCAGCGCCAGTTCCAGCGCTTCAACGCTGATGCCAGTTTCTGGATCGGTTGGGATTTCAATCACTTTCACGCCCATGCCGCGCAGCATCTGCATCGAACCGTAATAACAGGGGGATTCGACCGCGACAATATCGCCCGGTTTACACACTGCCATTAACGCCAGCGACATCG</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1006</v>
+        <v>1021</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCT</t>
+          <t>GCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACGGCCTCGCCAATTTGCTTCAGTGCTTCGCGATAGGTTTCGCTGAGCGGCAAAGCGCAGTTGATGCGCAGACAATTACGGTATTTGCCGGAAGCTGAGAAAATCGAGCCTGCCGCCACCTGGATTTTCATGCGGCACAGCTGCCGCGCGACGCAGACCATATCGACCTGTTCAGGCAATTCTATCCACAGTAAAAATCCGCCTTTCGGGCGCGTAATACAGATTTCGCAGGGAAAATATTCCCGTATCCAGCAGGTATAAAGCGCCAAATTGCGCTGATAGATCTGCCGCATCCGCCGGATATGGCGATGATAGTGACCTTCCAGCACAAACGTTGCCGCCGCCATTTGCGTGGACGGCACATTAAAGCTGCTGATGGCGTATTTCATATGCATCAGTTTATCGTGATAACGCCCCGGTGCGACCCAACCCACGCGCAGGCCTGGTGCAATACTTTTACTGAACGAGCTGCACAACAGCACTCGCCCGTCGATATCCCAGGAATGAATGGTCCGCGGGCGCGGATACTCCGTCGCCAGTTCGCCATAGACATCATCTTCAAAAATCACAATATCATGACGCTGAGCGAGAGAGAGAACGGCCCGTTTGCGCGCGTCCGGCATAATAAATCCCAGCGGATTATTACAGTTTGGCACCAGAATGATGCCTTTAATCGGCCACTGTTCCAGCGCCAGTTCCAGCGCTTCAACGCTGATGCCAGTTTCTGGATCGGTTGGGATTTCAATCACTTTCACGCCCATGCCGCGCAGCATCTGCATCGAACCGTAATAACAGGGGGATTCGACCGCGACAATATCGCCCGGTTTACACACTGCCATTAACGCCAGCGACATCGAGTTATGGCAGCCGCTGGTGATGATGATGTCATCGGCGGTGACCACCGAGCCGCTGTCGAGCATCAGGCGGGCAATCTGCTCTCGCAATACTCGCTGACCGGCTAACAAGTCATAACCGAGAACGGTTTG</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_15to19_sub</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAGTTGGTGACCCACAGTTCGA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>994</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>GTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCT</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>GTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_90_ins</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAGTTATTTCCGTGCGCGTTGG</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1009</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>GTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCT</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>GTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAAGCGCCTTACTTAACCCGC</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>AACTTTGCCGGGCCAAAATC</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTT</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1005</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>AGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTTTTAGGAAAAGACCTGGTGGGTTATGGCCGACAATCGGGAACTCACATGAGGGAATGGCGTCGATTCCATAAGCACAATTCTTTGGACGATCTCACCGCGCAGGACATCAACTATGTGGAGGTGATGAAGA</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>AGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTT</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAGTTATTTCCGTGCGCGTTGG</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1009</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>GTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCT</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>GTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAAGCGCCTTACTTAACCCGC</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>AACTTTGCCGGGCCAAAATC</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTT</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1005</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>AGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTTTTAGGAAAAGACCTGGTGGGTTATGGCCGACAATCGGGAACTCACATGAGGGAATGGCGTCGATTCCATAAGCACAATTCTTTGGACGATCTCACCGCGCAGGACATCAACTATGTGGAGGTGATGAAGA</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>AGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTT</t>
+          <t>GCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACGGCCTCGCCAATTTGCTTCAGTGCTTCGCGATAGGTTTCGCTGAGCGGCAAAGCGCAGTTGATGCGCAGACAATTACGGTATTTGCCGGAAGCTGAGAAAATCGAGCCTGCCGCCACCTGGATTTTCATGCGGCACAGCTGCCGCGCGACGCAGACCATATCGACCTGTTCAGGCAATTCTATCCACAGTAAAAATCCGCCTTTCGGGCGCGTAATACAGATTTCGCAGGGAAAATATTCCCGTATCCAGCAGGTATAAAGCGCCAAATTGCGCTGATAGATCTGCCGCATCCGCCGGATATGGCGATGATAGTGACCTTCCAGCACAAACGTTGCCGCCGCCATTTGCGTGGACGGCACATTAAAGCTGCTGATGGCGTATTTCATATGCATCAGTTTATCGTGATAACGCCCCGGTGCGACCCAACCCACGCGCAGGCCTGGTGCAATACTTTTACTGAACGAGCTGCACAACAGCACTCGCCCGTCGATATCCCAGGAATGAATGGTCCGCGGGCGCGGATACTCCGTCGCCAGTTCGCCATAGACATCATCTTCAAAAATCACAATATCATGACGCTGAGCGAGAGAGAGAACGGCCCGTTTGCGCGCGTCCGGCATAATAAATCCCAGCGGATTATTACAGTTTGGCACCAGAATGATGCCTTTAATCGGCCACTGTTCCAGCGCCAGTTCCAGCGCTTCAACGCTGATGCCAGTTTCTGGATCGGTTGGGATTTCAATCACTTTCACGCCCATGCCGCGCAGCATCTGCATCGAACCGTAATAACAGGGGGATTCGACCGCGACAATATCGCCCGGTTTACACACTGCCATTAACGCCAGCGACATCG</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1188,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1938,41 +1254,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub</t>
+          <t>dxs_sub_933_C_T_sub</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
+          <t>CCGGAAACTCCGCTGGGCGA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>58.09938459947227</v>
+        <v>61.48918648229989</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.240736765585893</v>
+        <v>10.91880888583819</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.791950779974854</v>
+        <v>22.42596991313599</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>AGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
+          <t>CCGGAAACTCCGCTGGGCGAGCCGAAAAACAAATATATGGAACTGGGTCCACGCGACAAAGTTTCTCAGGCCTTCTGGCACGAATGGCGTAAAGGCAACACCATCTCCACGCCGCGTGGTGATGTGGTTTATCTCGACCTGCGTCACCTCGGCGAGAAAAAACTGCATGAACGTCTGCCGTTCATCTGCGAACTGGCGAAAGCGTACGTTGGCGTCGATCCGGTTAAAGAACCGATTCCGGTACGTCCGACCGCACACTACACCATGGGCGGTATCGAAACCGATCAGAACTGTGAAACCCGCATTAAAGGTCTGTTCGCCGTGGGTGAATGTTCCTCTGTTGGTCTGCACGGTGCAAACCGTCTGGGCTCCAACTCCCTGGCGGAACTGGTGGTCTTCGGCCGTCTGGCCGGTGAACAAGCGACAGAGCGTGCAGCAACTGCCGGTAATGGCAACGAAGCGGCAATTGAAGCGCAGGCAGCTGGCGTTGAACAACGTCTGAAAGATCTGGTTAACCAGGATGGCGGCGAAAACTGGGCGAAGATCCGCGACGAAATGGGCCTGGCAATGGAAGAAGGCTGCGGTATCTACCGTACGCCGGAACTGATGCAGAAAACCATCGACAAGCTGGCTGAGCTGCAGGAACGCTTCAAGCGCGTGCGCATCACCGACACTTCCAGCGTGTTCAACACCGACCTGCTCTACACCATTGAACTGGGCCACGGTCTGAACGTTGCTGAATGTATGGCGCACTCCGCAATGGCACGTAAAGAGTCCCGCGGCGCACACCAGCGTCTGGACGAAGGTTGCACCGAGCGTGACGACGTCAACTTCCTCAAACACACCCTCGCCTTCCGCGATGCTGATGGCACGACTCGCCTGGAGTACAGCGACGTGAAGATTACTACGCTGCCGCCAGCTAAACGCGTTTACGGTGGCGAAGCGGATGCAGCCGATAAGGCGGAAGCAGCCAATAAGAAGGAGAAGGCGAATGGCTGAGATGAAAAACCTGAAAATTGAGGTGGTGCGCTATAACCCGGAAGTCGATACCGCACCGCATAGCGCATTCTATGAAGTGCCTTATGACGCAACTACCTCATTACTGGATGCAAACAACCGCTGGAGGGATCAAATTTAGGCACGGCGTGGAAAGTGATCGGGTCTTTTTCTGCCGGTTCATAACCACGACCTTTTTTGGTCATGATATGCAGGAACTGCGGGCCTTTCAGGTCGCGCATGTTCTTTAGCGTGGTGATAAGCCCCAGCACATCGTGACCGTCCACCGGGCCGATGTAGTTAAAGCCCAGCTCTTCAAACAACGTGCCAGGCACTACCATGCCTTTAATATGTTCTTCGGTGCGTTTGAGCAGCTCTTTAATTGGCGGCACGCCAGAGAAAACTTTTTTCCCGCCTTCGCGCAGTGAAGAGTAAAGCTTACCGGAAAGCAGCTGTGCCAGATGGTTGTTGAGCGCGCCGACATTTTCGGAAATCGACATTTCATTGTCGTTGAGAATCACCAGCATATCAGGACGGATATCGCCCGCGTGATTCATCGCTTCAAACGCCATGCCTGCGGTAATCGCGCCATCGCCAATGACACAGACGGTGCGGCGATTTTTGCCTTCTTTTTCGGCAGCAACCGCAATACCAATTCCGGCACTGATGGAGGTTGATGAATGCCCGACGCTTAATACGTCATATTCGCTTTCGCCGCGCCACGGGAACGGGTGCAGACCGCCTTTCTGACGGATGGTGCCGATTTTGTCGCGGCGTCCGGTCAAAATTTTATGCGGATAAGCCTGATGCCCCACATCCCAAATCAATTGGTCAAACGGGGTGTTGTAGACATAGTGCAGCGCCACGGTCAGTTCGACCGTGCCCAGCCCGGAGGCGAAGTGCCCGCTGGAACGGCTCACGCTGTCGAGTAAATAGCGGCGCAGTTCGTCGCAGAGTTTCGGTAAACTCTCTTTCGGCAACAGTCGTAACTCCTGGGTGGAGTCGACCAGTGCCAGGGTCGGGTATTTGGCAATATCAAAACTCATCAGGGGCCTATTAATACTTATTGTTTATTTATTACGCTGGATGATGTAGTCCGCTAGCGCTTCCAGTGCCGAGGTATCGAGTGACTGTTCAGCCAGTTGTTTCAGCGACTGACGGGCATCGTCGATCAGATCCCGGGCTTTCTTCCGGGCTTGCTCAAGACCCAGAAGTGCAGGGTAGGTACTTTTACCAAGTTGCTGGTCGGCA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>TGCCGACCAGCAACTTGG</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>59.4809229030995</v>
+        <v>60.59430255997739</v>
       </c>
       <c r="J2" t="n">
-        <v>-51.9671254908975</v>
+        <v>-33.87694222802281</v>
       </c>
       <c r="K2" t="n">
-        <v>2074</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="3">
@@ -1981,41 +1297,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del</t>
+          <t>aceE_del</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
+          <t>CCGGAAACTCCGCTGGGCGA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>58.09938459947227</v>
+        <v>61.48918648229989</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.240736765585893</v>
+        <v>10.91880888583819</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.791950779974854</v>
+        <v>-31.65692115111509</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>AGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
+          <t>CCGGAAACTCCGCTGGGCGAGCCGAAAAACAAATATATGGAACTGGGTCCACGCGACAAAGTTTCTCAGGCCTTCTGGCACGAATGGCGTAAAGGCAACACCATCTCCACGCCGCGTGGTGATGTGGTTTATCTCGACCTGCGTCACCTCGGCGAGAAAAAACTGCATGAACGTCTGCCGTTCATCTGCGAACTGGCGAAAGCGTACGTTGGCGTCGATCCGGTTAAAGAACCGATTCCGGTACGTCCGACCGCACACTACACCATGGGCGGTATCGAAACCGATCAGAACTGTGAAACCCGCATTAAAGGTCTGTTCGCCGTGGGTGAATGTTCCTCTGTTGGTCTGCACGGTGCAAACCGTCTGGGCTCCAACTCCCTGGCGGAACTGGTGGTCTTCGGCCGTCTGGCCGGTGAACAAGCGACAGAGCGTGCAGCAACTGCCGGTAATGGCAACGAAGCGGCAATTGAAGCGCAGGCAGCTGGCGTTGAACAACGTCTGAAAGATCTGGTTAACCAGGATGGCGGCGAAAACTGGGCGAAGATCCGCGACGAAATGGGCCTGGCAATGGAAGAAGGCTGCGGTATCTACCGTACGCCGGAACTGATGCAGAAAACCATCGACAAGCTGGCTGAGCTGCAGGAACGCTTCAAGCGCGTGCGCATCACCGACACTTCCAGCGTGTTCAACACCGACCTGCTCTACACCATTGAACTGGGCCACGGTCTGAACGTTGCTGAATGTATGGCGCACTCCGCAATGGCACGTAAAGAGTCCCGCGGCGCACACCAGCGTCTGGACGAAGGTTGCACCGAGCGTGACGACGTCAACTTCCTCAAACACACCCTCGCCTTCCGCGATGCTGATGGCACGACTCGCCTGGAGTACAGCGACGTGAAGATTACTACGCTGCCGCCAGCTAAACGCGTTTACGGTGGCGAAGCGGATGCAGCCGATAAGGCGGAAGCAGCCAATAAGAAGGAGAAGGCGAATGGCTGAGATGAAAAACCTGAAAATTGAGGTGGTGCGCTATAACCCGGAAGTCGATACCGCACCGCATAGCGCATTCTATGAAGTGCCTTATGACGCAACTACCTCATTACTGGATGCGAGGTAAAAGAATAATGGCTATCGAAATCAAAGTACCGGACATCGGGGCTGATGAAGTTGAAATCACCGAGATCCTGGTCAAAGTGGGCGACAAAGTTGAAGCCGAACAGTCGCTGATCACCGTAGAAGGCGACAAAGCCTCTATGGAAGTTCCGTCTCCGCAGGCGGGTATCGTTAAAGAGATCAAAGTCTCTGTTGGCGATAAAACCCAGACCGGCGCACTGATTATGATTTTCGATTCCGCCGACGGTGCAGCAGACGCTGCACCTGCTCAGGCAGAAGAGAAGAAAGAAGCAGCTCCGGCAGCAGCACCAGCGGCTGCGGCGGCAAAAGACGTTAACGTTCCGGATATCGGCAGCGACGAAGTTGAAGTGACCGAAATCCTGGTGAAAGTTGGCGATAAAGTTGAAGCTGAACAGTCGCTGATCACCGTAGAAGGCGACAAGGCTTCTATGGAAGTTCCGGCTCCGTTTGCTGGCACCGTGAAAGAGATCAAAGTGAACGTGGGTGACAAAGTGTCTACCGGCTCGCTGATTATGGTCTTCGAAGTCGCGGGTGAAGCAGGCGCGGCAGCTCCGGCCGCTAAACAGGAAGCAGCTCCGGCAGCGGCCCCTGCACCAGCGGCTGGCGTGAAAGAAGTTAACGTTCCGGATATCGGCGGTGACGAAGTTGAAGTGACTGAAGTGATGGTGAAAGTGGGCGACAAAGTTGCCGCTGAACAGTCACTGATCACCGTAGAAGGCGACAAAGCTTCTATGGAAGTTCCGGCGCCGTTTGCAGGCGTCGTGAAGGAACTGAAAGTCAACGTTGGCGATAAAGTGAAAACTGGCTCGCTGATTATGATCTTCGAAGTTGAAGGCGCAGCGCCTGCGGCAGCTCCTGCGAAACAGGAAGCGGCAGCGCCGGCACCGGCAGCAAAAGCTGAAGCCCCGGCAGCAGCACCAGCTGCGAAAGCGGAAGGCAAATCTGAATTTGCTGAAAACGACGCTTATGTTCACGCGACTCCGCTGATCCGCCGTCTGGCACGCGAGTTTGGTGTTAACCTTGCGAAAGTGAAGGGCACTGGCCGTAAAGGTCGTATCCTGCGCGAAGACGTTCAGGCTTACGTGAAAGAAGCTATCAAACGTGCAGAAGCAGCTCC</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>GGAGCTGCTTCTGCACGTTT</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>59.4809229030995</v>
+        <v>61.51048014864102</v>
       </c>
       <c r="J3" t="n">
-        <v>-51.9671254908975</v>
+        <v>-0.900577242230667</v>
       </c>
       <c r="K3" t="n">
-        <v>2072</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="4">
@@ -2024,41 +1340,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins</t>
+          <t>pntA_promoter_sub</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
+          <t>CCGGAAACTCCGCTGGGCGA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>58.09938459947227</v>
+        <v>61.48918648229989</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.240736765585893</v>
+        <v>10.91880888583819</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.791950779974854</v>
+        <v>-21.74543963194742</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>AGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
+          <t>CCGGAAACTCCGCTGGGCGAGCCGAAAAACAAATATATGGAACTGGGTCCACGCGACAAAGTTTCTCAGGCCTTCTGGCACGAATGGCGTAAAGGCAACACCATCTCCACGCCGCGTGGTGATGTGGTTTATCTCGACCTGCGTCACCTCGGCGAGAAAAAACTGCATGAACGTCTGCCGTTCATCTGCGAACTGGCGAAAGCGTACGTTGGCGTCGATCCGGTTAAAGAACCGATTCCGGTACGTCCGACCGCACACTACACCATGGGCGGTATCGAAACCGATCAGAACTGTGAAACCCGCATTAAAGGTCTGTTCGCCGTGGGTGAATGTTCCTCTGTTGGTCTGCACGGTGCAAACCGTCTGGGCTCCAACTCCCTGGCGGAACTGGTGGTCTTCGGCCGTCTGGCCGGTGAACAAGCGACAGAGCGTGCAGCAACTGCCGGTAATGGCAACGAAGCGGCAATTGAAGCGCAGGCAGCTGGCGTTGAACAACGTCTGAAAGATCTGGTTAACCAGGATGGCGGCGAAAACTGGGCGAAGATCCGCGACGAAATGGGCCTGGCAATGGAAGAAGGCTGCGGTATCTACCGTACGCCGGAACTGATGCAGAAAACCATCGACAAGCTGGCTGAGCTGCAGGAACGCTTCAAGCGCGTGCGCATCACCGACACTTCCAGCGTGTTCAACACCGACCTGCTCTACACCATTGAACTGGGCCACGGTCTGAACGTTGCTGAATGTATGGCGCACTCCGCAATGGCACGTAAAGAGTCCCGCGGCGCACACCAGCGTCTGGACGAAGGTTGCACCGAGCGTGACGACGTCAACTTCCTCAAACACACCCTCGCCTTCCGCGATGCTGATGGCACGACTCGCCTGGAGTACAGCGACGTGAAGATTACTACGCTGCCGCCAGCTAAACGCGTTTACGGTGGCGAAGCGGATGCAGCCGATAAGGCGGAAGCAGCCAATAAGAAGGAGAAGGCGAATGGCTGAGATGAAAAACCTGAAAATTGAGGTGGTGCGCTATAACCCGGAAGTCGATACCGCACCGCATAGCGCATTCTATGAAGTGCCTTATGACGCAACTACCTCATTACTGGATGCGTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGTTCTGAAGTCGGTCGCTTCTTTGAAACCCAGTCATCAAAAGGCGGGCGTTACACCGTCACGCTCCCGGATGGCACTAAAGTCGAAGAACTGAACAAAGCGACCGCAGCGATGATGGTCCCGTTCGACA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>TGTCGAACGGGACCATCATC</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>59.4809229030995</v>
+        <v>59.82515507935778</v>
       </c>
       <c r="J4" t="n">
-        <v>-51.9671254908975</v>
+        <v>-14.63116813722309</v>
       </c>
       <c r="K4" t="n">
-        <v>2075</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="5">
@@ -2067,256 +1383,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub</t>
+          <t>Cgl1452_ins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
+          <t>CCGGAAACTCCGCTGGGCGA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>58.09938459947227</v>
+        <v>61.48918648229989</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.240736765585893</v>
+        <v>10.91880888583819</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.791950779974854</v>
+        <v>-7.730218358821162</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>AGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
+          <t>CCGGAAACTCCGCTGGGCGAGCCGAAAAACAAATATATGGAACTGGGTCCACGCGACAAAGTTTCTCAGGCCTTCTGGCACGAATGGCGTAAAGGCAACACCATCTCCACGCCGCGTGGTGATGTGGTTTATCTCGACCTGCGTCACCTCGGCGAGAAAAAACTGCATGAACGTCTGCCGTTCATCTGCGAACTGGCGAAAGCGTACGTTGGCGTCGATCCGGTTAAAGAACCGATTCCGGTACGTCCGACCGCACACTACACCATGGGCGGTATCGAAACCGATCAGAACTGTGAAACCCGCATTAAAGGTCTGTTCGCCGTGGGTGAATGTTCCTCTGTTGGTCTGCACGGTGCAAACCGTCTGGGCTCCAACTCCCTGGCGGAACTGGTGGTCTTCGGCCGTCTGGCCGGTGAACAAGCGACAGAGCGTGCAGCAACTGCCGGTAATGGCAACGAAGCGGCAATTGAAGCGCAGGCAGCTGGCGTTGAACAACGTCTGAAAGATCTGGTTAACCAGGATGGCGGCGAAAACTGGGCGAAGATCCGCGACGAAATGGGCCTGGCAATGGAAGAAGGCTGCGGTATCTACCGTACGCCGGAACTGATGCAGAAAACCATCGACAAGCTGGCTGAGCTGCAGGAACGCTTCAAGCGCGTGCGCATCACCGACACTTCCAGCGTGTTCAACACCGACCTGCTCTACACCATTGAACTGGGCCACGGTCTGAACGTTGCTGAATGTATGGCGCACTCCGCAATGGCACGTAAAGAGTCCCGCGGCGCACACCAGCGTCTGGACGAAGGTTGCACCGAGCGTGACGACGTCAACTTCCTCAAACACACCCTCGCCTTCCGCGATGCTGATGGCACGACTCGCCTGGAGTACAGCGACGTGAAGATTACTACGCTGCCGCCAGCTAAACGCGTTTACGGTGGCGAAGCGGATGCAGCCGATAAGGCGGAAGCAGCCAATAAGAAGGAGAAGGCGAATGGCTGAGATGAAAAACCTGAAAATTGAGGTGGTGCGCTATAACCCGGAAGTCGATACCGCACCGCATAGCGCATTCTATGAAGTGCCTTATGACGCAACTACCTCATTACTGGATGCGCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACGGCCTCGCCAATTTGCTTCAGTGCTTCGCGATAGGTTTCGCTGAGCGGCAAAGCGCAGTTGATGCGCAGACAATTACGGTATTTGCCGGAAGCTGAGAAAATCGAGCCTGCCGCCACCTGGATTTTCATGCGGCACAGCTGCCGCGCGACGCAGACCATATCGACCTGTTCAGGCAATTCTATCCACAGTAAAAATCCGCCTTTCGGGCGCGTAATACAGATTTCGCAGGGAAAATATTCCCGTATCCAGCAGGTATAAAGCGCCAAATTGCGCTGATAGATCTGCCGCATCCGCCGGATATGGCGATGATAGTGACCTTCCAGCACAAACGTTGCCGCCGCCATTTGCGTGGACGGCACATTAAAGCTGCTGATGGCGTATTTCATATGCATCAGTTTATCGTGATAACGCCCCGGTGCGACCCAACCCACGCGCAGGCCTGGTGCAATACTTTTACTGAACGAGCTGCACAACAGCACTCGCCCGTCGATATCCCAGGAATGAATGGTCCGCGGGCGCGGATACTCCGTCGCCAGTTCGCCATAGACATCATCTTCAAAAATCACAATATCATGACGCTGAGCGAGAGAGAGAACGGCCCGTTTGCGCGCGTCCGGCATAATAAATCCCAGCGGATTATTACAGTTTGGCACCAGAATGATGCCTTTAATCGGCCACTGTTCCAGCGCCAGTTCCAGCGCTTCAACGCTGATGCCAGTTTCTGGATCGGTTGGGATTTCAATCACTTTCACGCCCATGCCGCGCAGCATCTGCATCGAACCGTAATAACAGGGGGATTCGACCGCGACAATATCGCCCGGTTTACACACTGCCATTAACGCCAGCGACATCGAGTTATGGCAGCCGCTGGTGATGATGATGTCATCGGCGGTGACCACCGAGCCGCTGTCGAGCATCAGGCGGGCAATCTGCTCTCGCAATACTCGCTGACCGGCTAACAAGTCA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>TGACTTGTTAGCCGGTCAGC</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>59.4809229030995</v>
+        <v>60.32042093038291</v>
       </c>
       <c r="J5" t="n">
-        <v>-51.9671254908975</v>
+        <v>-0.263335569570756</v>
       </c>
       <c r="K5" t="n">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_15to19_sub</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>58.09938459947227</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-1.240736765585893</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-5.791950779974854</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>59.4809229030995</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-51.9671254908975</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_90_ins</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>58.09938459947227</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-1.240736765585893</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-5.791950779974854</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>59.4809229030995</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-51.9671254908975</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>58.09938459947227</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-1.240736765585893</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-17.81649251630751</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTTTTAGGAAAAGACCTGGTGGGTTATGGCCGACAATCGGGAACTCACATGAGGGAATGGCGTCGATTCCATAAGCACAATTCTTTGGACGATCTCACCGCGCAGGACATCAACTAT</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ATAGTTGATGTCCTGCGCGG</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>60.53065026463071</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6.675496766957792</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>58.09938459947227</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-1.240736765585893</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-5.791950779974854</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>59.4809229030995</v>
-      </c>
-      <c r="J9" t="n">
-        <v>-51.9671254908975</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>58.09938459947227</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-1.240736765585893</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-17.81649251630751</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTTTTAGGAAAAGACCTGGTGGGTTATGGCCGACAATCGGGAACTCACATGAGGGAATGGCGTCGATTCCATAAGCACAATTCTTTGGACGATCTCACCGCGCAGGACATCAACTAT</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ATAGTTGATGTCCTGCGCGG</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>60.53065026463071</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6.675496766957792</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2057</v>
+        <v>2224</v>
       </c>
     </row>
   </sheetData>
@@ -2330,7 +1431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2396,41 +1497,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub</t>
+          <t>dxs_sub_933_C_T_sub</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
+          <t>AACGCGAAGGTCGGTTTTTCCTAAGGGGTTGTATTGCATGCTGCCACTCCTGCTATACTCGTCATACTTCAAGTTGCATGTGCTGCGGCTGCATTCGTTCACCCCAGTCACTTACTTATGTAAGCTCCTGGGGCTTCACTCGTTTGCCGCCTTCCTGCAACTCGAATTATTTAGAGTCTATGAATAATTTCTTAAGCATAGCAGGAGTGGAGTAGGGATTATGCCAGCCAGGCCTTGATTTTGGCTTCCATACCAGCGGCATCGAGGCCGAGTTCGGCGCGCATTTCTTCCTGAGTTCCTTGCGGAATAAAGAAGTCCGGCAGGCCAATGTTCAGCACGGGTACTGGTTTACGATGGGCCATCAGCACTTCGTTCACGCCGCTGCCTGCGCCGCCCATAATGGCGTTTTCTTCTACGGTGACCAGCGCTTCATGGCTGGCGGCCATTTCCAGAATTAACGCTTCATCAAGCGGTTTCACAAAACGCATATCGACCAGCGTGGCGTTCAGCGATTCGGCGACTTTCGCCGCTTCTGGCATCAGCGTACCAAAGTTAAGGATCGCCAGTTTCTCGCCACGACGCTTCACAATGCCTTTGCCAATTGGTAGTTTTTCCAGCGGCGTCAGTTCCACGCCGACCGCGTTGCCACGCGGGTAGCGCACCGCTGACGGGCCATCGTTATAGTGATAGCCGGTATAGAGCATCTGGCGACATTCGTTTTCATCGCTCGGGGTCATAATGACCATTTCCGGTATGCAGCGCAGGTAAGAGAGATCAAAAGCACCCTGATGGGTTTGACCGTCAGCACCAACAATGCCCGCGCGGTCGATGGCGAACAGGACCGGAAGCTTTTGAATCGCCACGTCATGCAGCACCTGATCATAGGCGCGTTGCAGGAAAGTGGAGTAAATCGCGACAATGGGTTTGTACCCACCAATCGCCAGACCCGCAGCAAAGGTCACCGCGTGTTGCTCGGCAATTGCCACGTCGAAGTAGCGATCCGGGAATTTACGTGAAAACTCGACCATGCCGGAACCTTCACGCATCGCCGGAGTAATCGCCATCAGCTTGTTGTCTTTCGCTGCCGTTTCGCACAACCAGTCGCCAAAGATTTTTGAATAGCTCGGCAAACCGCCGCTACTTTTCGGTAAACAACCGCTGGAGGGATCAAATTTAGGCACGGCGTGGAAAGTGATCGGGTCTTTTTCTGCCGGTTCATAACCACGACCTTTTTTGGTCATGATATGCAGGAACTGCGGGCCTTTCAGGTCGCGCATGTTCTTTAGCGTGGTGATAAGCCCCAGCACATCGTGACCGTCCACCGGGCCGATGTAGTTAAAGCCCAGCTCTTCAAACAACGTGCCAGGCACTACCATGCCTTTAATATGTTCTTCGGTGCGTTTGAGCAGCTCTTTAATTGGCGGCACGCCAGAGAAAACTTTTTTCCCGCCTTCGCGCAGTGAAGAGTAAAGCTTACCGGAAAGCAGCTGTGCCAGATGGTTGTTGAGCGCGCCGACATTTTCGGAAATCGACATTTCATTGTCGTTGAGAATCACCAGCATATCAGGACGGATATCGCCCGCGTGATTCATCGCTTCAAACGCCATGCCTGCGGTAATCGCGCCATCGCCAATGACACAGACGGTGCGGCGATTTTTGCCTTCTTTTTCGGCAGCAACCGCAATACCAATTCCGGCACTGATGGAGGTTGATGAATGCCCGACGCTTAATACGTCATATTCGCTTTCGCCGCGCCACGGGAACGGGTGCAGACCGCCTTTCTGACGGATGGTGCCGATTTTGTCGCGGCGTCCGGTCAAAATTTTATGCGGATAAGCCTGATGCCCCACATCCCAAATCAATTGGTCAAACGGGGTGTTGTAGACATAGTGCAGCGCCACGGTCAGTTCGACCGTGCCCAGCCCGGAGGCGAAGTGCCCGCTGGAACGGCTCACGCTGTCGAGTAAATAGCGGCGCAGTTCGTCGCAGAGTTTCGGTAAACTCTCTTTCGGCAACAGTCGTAACTCCTGGGTGGAGTCGACCAGTGCCAGGGTCGGGTATTTGGCAATATCAAAACTCATCAGGGGCCTATTAATACTTATTGTTTATTTATTACGCTGGATGATGTAGTCCGCTAGCGCTTCCAGTGCCGAGGTATCGAGTGACTGTTCAGCCAGTTGTTTCAGCGACTGACGGGCATCGTCGATCAGATCCCGGGCTTTCTTCCGGGCTTGCTCAAGACCCAGAAGTGCAGGGTAGGTACTTTTACCAAGTTGCTGGTCGGCA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>24.76800258547536</v>
+        <v>13.64979653795285</v>
       </c>
       <c r="E2" t="n">
-        <v>-51.9671254908975</v>
+        <v>-33.87694222802281</v>
       </c>
       <c r="F2" t="n">
-        <v>-50.63914322873023</v>
+        <v>18.98315983858089</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>AACGCGAAGGTCGGTTTTTC</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>TGCCGACCAGCAACTTGG</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>60.31886934013568</v>
+        <v>59.6943825309412</v>
       </c>
       <c r="J2" t="n">
-        <v>59.4809229030995</v>
+        <v>60.59430255997739</v>
       </c>
       <c r="K2" t="n">
-        <v>2295</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="3">
@@ -2439,41 +1540,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins</t>
+          <t>pntA_promoter_sub</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGCGCGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
+          <t>TAATTTCGCCCGCACGGATCACGGTCACGCCGCGAATCACCACATCATCAAAATCAACAGTGATATTGCCGTCTTTCTCTTTGCACAACAGTTTCAGCAGATTAACGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCATTATGGTACGTCCAATCTTTCTCTAGATTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGTTCTGAAGTCGGTCGCTTCTTTGAAACCCAGTCATCAAAAGGCGGGCGTTACACCGTCACGCTCCCGGATGGCACTAAAGTCGAAGAACTGAACAAAGCGACCGCAGCGATGATGGTCCCGTTCGACA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>24.76800258547536</v>
+        <v>8.32323228564394</v>
       </c>
       <c r="E3" t="n">
-        <v>-51.9671254908975</v>
+        <v>-14.63116813722309</v>
       </c>
       <c r="F3" t="n">
-        <v>-50.63914322873023</v>
+        <v>10.99409519360194</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>TAATTTCGCCCGCACGGAT</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>TGTCGAACGGGACCATCATC</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>60.31886934013568</v>
+        <v>60.15332929800883</v>
       </c>
       <c r="J3" t="n">
-        <v>59.4809229030995</v>
+        <v>59.82515507935778</v>
       </c>
       <c r="K3" t="n">
-        <v>2298</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="4">
@@ -2482,213 +1583,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub</t>
+          <t>Cgl1452_ins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGTCCATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
+          <t>AGTCGCTAAAGTCAGGCCATCTTTTTCAACAGGTGATGGATCGCCATGACAAACTTCACGACCAGCACGCCGCATGATGCATTATTTAAAACCTTTCTCACGCACCCTGACACTGCGCGGGATTTTATGGAGATTCACTTACCTAAAGATTTACGTGAACTGTGCGATCTCGATAGCTTAAAACTGGAATCCGCCAGCTTTGTCGATGAAAAATTGCGGGCGCTACACTCCGATATTTTATGGTCGGTAAAGACCCGCGAAGGCGATGGCTATATCTATGTGGTGATTGAACATCAGAGCCGCGAGGACATTCATATGGCCTTTCGCCTGATGCGCTATTCCATGGCGGTGATGTAGCGCCATATAGAGCATGATAAACGCCAGCCGCTACCGTTGGTCATCCCGATGCTATTTTATCACGGTAGCCGTAGTCCTTACCCCTGGTCCCTGTGCTGGCTGGACGAATTTGCCGACCCGACTACCGCACGGAAGCTTTATAACGCCGCGTTCCCGCTGGTGGATGTTACTGTCGTGCCAGACGACGAGATTGTGCAGCATCGCAGAGTCGCCCTGTTGGAGTTGATCCAAAAGCATATTCGCCAGCGCGATCTGATGGGGCTTATCGATCAACTGGTAGTATTACTGGTTACAGAGTGTGCTAATGACAGCCAGATAACTGCGCTGTTAAATTACATTTTACTGACTGGCGATGAAGCGCGTTTTAATGAGTTTATCAGTGAACTTACCCGTCGAATGCCACAACACAGGGAGCGAATAATGACGATTGCAGAGCGAATTCATAATGATGGATATATAAAAGGGGAGCAGCGCATTCTTCGATTGTTGTTGCAGAATGGGGCGGATCCTGAATGGATACAAAAGATTACCGGACTTTCGGCAGAGCAAATGCAGGCATTAAGGCAGCCCTTGCCTGAGCGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATGCGCGCCAAAAAGAGTATTGACTTCGCATCTTTTTGTACCCATAATTATTTCATTCACATCACACAGGAAAGGCCCATAATGCCGTCAAGTACGATCAATAACATGACTAATGGAGATAATCTCGCACAGATCGGCGTTGTAGGCCTAGCAGTAATGGGCTCAAACCTCGCCCGCAACTTCGCCCGCAACGGCAACACTGTCGCTGTCTACAACCGCAGCACTGACAAAACCGACAAGCTCATCGCCGATCACGGCTCCGAAGGCAACTTCATCCCTTCTGCAACCGTCGAAGAGTTCGTAGCATCCCTGGAAAAGCCACGCCGCGCCATCATCATGGTTCAGGCTGGTAACGCCACCGACGCAGTCATCAACCAGCTGGCAGATGCCATGGACGAAGGCGACATCATCATCGACGGCGGCAACGCCCTCTACACCGACACCATTCGTCGCGAGAAGGAAATCTCCGCACGCGGTCTCCACTTCGTCGGTGCTGGTATCTCCGGCGGCGAAGAAGGCGCACTCAACGGCCCATCCATCATGCCTGGTGGCCCAGCAAAGTCCTACGAGTCCCTCGGACCACTGCTTGAGTCCATCGCTGCCAACGTTGACGGCACCCCATGTGTCACCCACATCGGCCCAGACGGCGCCGGCCACTTCGTCAAGATGGTCCACAACGGCATCGAGTACGCCGACATGCAGGTCATCGGCGAGGCATACCACCTTCTCCGCTACGCAGCAGGCATGCAGCCAGCTGAAATCGCTGAGGTTTTCAAGGAATGGAACGCAGGCGACCTGGATTCCTACCTCATCGAAATCACCGCAGAGGTTCTCTCCCAGGTGGATGCTGAAACCGGCAAGCCACTAATCGACGTCATCGTTGACGCTGCAGGTCAGAAGGGCACCGGACGTTGGACCGTCAAGGCTGCTCTTGATCTGGGTATTGCTACCACCGGCATCGGCGAAGCTGTTTTCGCACGTGCACTCTCCGGCGCAACCAGCCAGCGCGCTGCAGCACAGGGCAACCTACCTGCAGGTGTCCTCACCGATCTGGAAGCACTTGGCGTGGACAAGGCACAGTTCGTCGAAGACGTTCGCCGTGCACTGTACGCATCCAAGCTTGTTGCTTACGCACAGGGCTTCGACGAGATCAAGGCTGGCTCCGACGAGAACAACTGGGACGTTGACCCTCGCGACCTCGCTACCATCTGGCGCGGCGGCTGCATCATTCGCGCTAAGTTCCTCAACCGCATCGTCGAAGCATACGATGCAAACGCTGAACTTGAGTCCCTGCTGCTCGATCCTTACTTCAAGAGCGAGCTCGGCGACCTCATCGATTCATGGCGTCGCGTGATTGTCACCGCCACCCAGCTTGGCCTGCCAATCCCAGTGTTCGCTTCCTCCCTGTCCTACTACGACAGCCTGCGTGCAGAGCGTCTGCCAGCAGCCCTGATCCAAGGACAGCGCGACTTCTTCGGTGCGCACACCTACAAGCGCATCGACAAGGATGGCTCCTTCCACACCGAGTGGTCCGGCGACCGCTCCGAGGTTGAAGCTTAAGCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACGGCCTCGCCAATTTGCTTCAGTGCTTCGCGATAGGTTTCGCTGAGCGGCAAAGCGCAGTTGATGCGCAGACAATTACGGTATTTGCCGGAAGCTGAGAAAATCGAGCCTGCCGCCACCTGGATTTTCATGCGGCACAGCTGCCGCGCGACGCAGACCATATCGACCTGTTCAGGCAATTCTATCCACAGTAAAAATCCGCCTTTCGGGCGCGTAATACAGATTTCGCAGGGAAAATATTCCCGTATCCAGCAGGTATAAAGCGCCAAATTGCGCTGATAGATCTGCCGCATCCGCCGGATATGGCGATGATAGTGACCTTCCAGCACAAACGTTGCCGCCGCCATTTGCGTGGACGGCACATTAAAGCTGCTGATGGCGTATTTCATATGCATCAGTTTATCGTGATAACGCCCCGGTGCGACCCAACCCACGCGCAGGCCTGGTGCAATACTTTTACTGAACGAGCTGCACAACAGCACTCGCCCGTCGATATCCCAGGAATGAATGGTCCGCGGGCGCGGATACTCCGTCGCCAGTTCGCCATAGACATCATCTTCAAAAATCACAATATCATGACGCTGAGCGAGAGAGAGAACGGCCCGTTTGCGCGCGTCCGGCATAATAAATCCCAGCGGATTATTACAGTTTGGCACCAGAATGATGCCTTTAATCGGCCACTGTTCCAGCGCCAGTTCCAGCGCTTCAACGCTGATGCCAGTTTCTGGATCGGTTGGGATTTCAATCACTTTCACGCCCATGCCGCGCAGCATCTGCATCGAACCGTAATAACAGGGGGATTCGACCGCGACAATATCGCCCGGTTTACACACTGCCATTAACGCCAGCGACATCGAGTTATGGCAGCCGCTGGTGATGATGATGTCATCGGCGGTGACCACCGAGCCGCTGTCGAGCATCAGGCGGGCAATCTGCTCTCGCAATACTCGCTGACCGGCTAACAAGTCA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>24.76800258547536</v>
+        <v>2.763999345539332</v>
       </c>
       <c r="E4" t="n">
-        <v>-51.9671254908975</v>
+        <v>-0.263335569570756</v>
       </c>
       <c r="F4" t="n">
-        <v>-50.63914322873023</v>
+        <v>2.876222107101569</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>AGTCGCTAAAGTCAGGCCAT</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>TGACTTGTTAGCCGGTCAGC</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>60.31886934013568</v>
+        <v>59.09464305682206</v>
       </c>
       <c r="J4" t="n">
-        <v>59.4809229030995</v>
+        <v>60.32042093038291</v>
       </c>
       <c r="K4" t="n">
-        <v>2295</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_15to19_sub</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGAGAGACACATACGGATAGGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>24.76800258547536</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-51.9671254908975</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-50.63914322873023</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>60.31886934013568</v>
-      </c>
-      <c r="J5" t="n">
-        <v>59.4809229030995</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2299</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_90_ins</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>24.76800258547536</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-51.9671254908975</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-50.63914322873023</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>60.31886934013568</v>
-      </c>
-      <c r="J6" t="n">
-        <v>59.4809229030995</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2385</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>24.76800258547536</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-51.9671254908975</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-50.63914322873023</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>60.31886934013568</v>
-      </c>
-      <c r="J7" t="n">
-        <v>59.4809229030995</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2832</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CTGAAGTGATGGCAGCCAGATTTGCCCTGCTCAATGAGTTGGGGCCGAAAATCTATGAGGCTTACACCACGATCGCCCCGGAATCCCGGCCAGCTGCGGTGAATTACAAAACCACCATCGATCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTTTTAGGAAAAGACCTGGTGGGTTATGGCCGACAATCGGGAACTCACATGAGGGAATGGCGTCGATTCCATAAGCACAATTCTTTGGACGATCTCACCGCGCAGGACATCAACTAT</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>17.40581710487936</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6.675496766957792</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-17.83564934255898</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>CTGAAGTGATGGCAGCCAGA</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ATAGTTGATGTCCTGCGCGG</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>60.03572498371517</v>
-      </c>
-      <c r="J8" t="n">
-        <v>60.53065026463071</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2807</v>
+        <v>3754</v>
       </c>
     </row>
   </sheetData>
@@ -2702,7 +1631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2768,84 +1697,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
+          <t>Cgl1452_ins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ATGACAGATCCAATTGAGCAGG</t>
+          <t>CGCGCCAAAAAGAGTATTGACT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CTATCCGTATGTGTCTCTCGGAC</t>
+          <t>TTAAGCTTCAACCTCGGAGCG</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>52.54718254163936</v>
+        <v>54.09291094564452</v>
       </c>
       <c r="F2" t="n">
-        <v>54.02352275972981</v>
+        <v>54.90551144823405</v>
       </c>
       <c r="G2" t="n">
-        <v>3.907304465258903</v>
+        <v>-2.760358960867222</v>
       </c>
       <c r="H2" t="n">
-        <v>3.239052365932593</v>
+        <v>-4.023749354511722</v>
       </c>
       <c r="I2" t="n">
-        <v>-11.20515631269433</v>
+        <v>3.164417210860279</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>ATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAG</t>
+          <t>CGCGCCAAAAAGAGTATTGACTTCGCATCTTTTTGTACCCATAATTATTTCATTCACATCACACAGGAAAGGCCCATAATGCCGTCAAGTACGATCAATAACATGACTAATGGAGATAATCTCGCACAGATCGGCGTTGTAGGCCTAGCAGTAATGGGCTCAAACCTCGCCCGCAACTTCGCCCGCAACGGCAACACTGTCGCTGTCTACAACCGCAGCACTGACAAAACCGACAAGCTCATCGCCGATCACGGCTCCGAAGGCAACTTCATCCCTTCTGCAACCGTCGAAGAGTTCGTAGCATCCCTGGAAAAGCCACGCCGCGCCATCATCATGGTTCAGGCTGGTAACGCCACCGACGCAGTCATCAACCAGCTGGCAGATGCCATGGACGAAGGCGACATCATCATCGACGGCGGCAACGCCCTCTACACCGACACCATTCGTCGCGAGAAGGAAATCTCCGCACGCGGTCTCCACTTCGTCGGTGCTGGTATCTCCGGCGGCGAAGAAGGCGCACTCAACGGCCCATCCATCATGCCTGGTGGCCCAGCAAAGTCCTACGAGTCCCTCGGACCACTGCTTGAGTCCATCGCTGCCAACGTTGACGGCACCCCATGTGTCACCCACATCGGCCCAGACGGCGCCGGCCACTTCGTCAAGATGGTCCACAACGGCATCGAGTACGCCGACATGCAGGTCATCGGCGAGGCATACCACCTTCTCCGCTACGCAGCAGGCATGCAGCCAGCTGAAATCGCTGAGGTTTTCAAGGAATGGAACGCAGGCGACCTGGATTCCTACCTCATCGAAATCACCGCAGAGGTTCTCTCCCAGGTGGATGCTGAAACCGGCAAGCCACTAATCGACGTCATCGTTGACGCTGCAGGTCAGAAGGGCACCGGACGTTGGACCGTCAAGGCTGCTCTTGATCTGGGTATTGCTACCACCGGCATCGGCGAAGCTGTTTTCGCACGTGCACTCTCCGGCGCAACCAGCCAGCGCGCTGCAGCACAGGGCAACCTACCTGCAGGTGTCCTCACCGATCTGGAAGCACTTGGCGTGGACAAGGCACAGTTCGTCGAAGACGTTCGCCGTGCACTGTACGCATCCAAGCTTGTTGCTTACGCACAGGGCTTCGACGAGATCAAGGCTGGCTCCGACGAGAACAACTGGGACGTTGACCCTCGCGACCTCGCTACCATCTGGCGCGGCGGCTGCATCATTCGCGCTAAGTTCCTCAACCGCATCGTCGAAGCATACGATGCAAACGCTGAACTTGAGTCCCTGCTGCTCGATCCTTACTTCAAGAGCGAGCTCGGCGACCTCATCGATTCATGGCGTCGCGTGATTGTCACCGCCACCCAGCTTGGCCTGCCAATCCCAGTGTTCGCTTCCTCCCTGTCCTACTACGACAGCCTGCGTGCAGAGCGTCTGCCAGCAGCCCTGATCCAAGGACAGCGCGACTTCTTCGGTGCGCACACCTACAAGCGCATCGACAAGGATGGCTCCTTCCACACCGAGTGGTCCGGCGACCGCTCCGAGGTTGAAGCTTAA</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ATGACAGATCCAATTGAGCAGG</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CTATCCGTATGTGTCTCTCGGAC</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>52.54718254163936</v>
-      </c>
-      <c r="F3" t="n">
-        <v>54.02352275972981</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3.907304465258903</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.239052365932593</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-11.20515631269433</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>ATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAG</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>537</v>
+        <v>1557</v>
       </c>
     </row>
   </sheetData>
@@ -2859,7 +1745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2925,41 +1811,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub</t>
+          <t>dxs_sub_933_C_T_sub</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>GTGCAAACCTTTCAAGCCGA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>GCATCCAGTAATGAGGTAGTTGC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>51.55740734956845</v>
+        <v>53.88563789537318</v>
       </c>
       <c r="F2" t="n">
-        <v>54.98004213215899</v>
+        <v>53.60446091066876</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.206200170467866</v>
+        <v>-36.72066710191646</v>
       </c>
       <c r="H2" t="n">
-        <v>31.44122408679118</v>
+        <v>-19.74939798369297</v>
       </c>
       <c r="I2" t="n">
-        <v>-48.36656690855659</v>
+        <v>-5.18606867495771</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
+          <t>GTGCAAACCTTTCAAGCCGATCTTGCCATTGTAGGCGCCGGTGGCGCGGGATTACGTGCTGCAATTGCTGCCGCGCAGGCAAATCCAAATGCAAAAATCGCACTAATCTCAAAAGTATACCCGATGCGTAGCCATACCGTTGCTGCAGAAGGGGGCTCCGCCGCTGTCGCGCAGGATCATGACAGCTTCGAATATCACTTTCACGATACAGTAGCGGGTGGCGACTGGTTGTGTGAGCAGGATGTCGTGGATTATTTCGTCCACCACTGCCCAACCGAAATGACCCAACTGGAACTGTGGGGGTGCCCATGGAGCCGTCGCCCGGATGGTAGCGTCAACGTACGTCGCTTCGGCGGCATGAAAATCGAGCGTACCTGGTTCGCCGCCGATAAGACCGGCTTCCATATGCTGCACACGCTGTTCCAGACCTCTCTGCAATTCCCGCAGATCCAGCGTTTTGACGAACATTTCGTGCTGGATATTCTGGTTGATGATGGTCATGTTCGCGGCCTGGTAGCAATGAACATGATGGAAGGCACGCTGGTGCAGATCCGTGCTAACGCGGTCGTTATGGCTACCGGCGGTGCGGGTCGCGTTTATCGTTACAACACCAACGGCGGCATCGTTACCGGTGACGGTATGGGTATGGCGCTAAGCCACGGCGTTCCGCTGCGTGACATGGAATTCGTTCAGTATCACCCAACCGGTCTGCCAGGTTCCGGTATCCTGATGACCGAAGGCTGCCGTGGTGAAGGCGGTATTCTGGTCAACAAAAATGGCTACCGTTATCTGCAAGATTACGGCATGGGCCCGGAAACTCCGCTGGGCGAGCCGAAAAACAAATATATGGAACTGGGTCCACGCGACAAAGTTTCTCAGGCCTTCTGGCACGAATGGCGTAAAGGCAACACCATCTCCACGCCGCGTGGTGATGTGGTTTATCTCGACCTGCGTCACCTCGGCGAGAAAAAACTGCATGAACGTCTGCCGTTCATCTGCGAACTGGCGAAAGCGTACGTTGGCGTCGATCCGGTTAAAGAACCGATTCCGGTACGTCCGACCGCACACTACACCATGGGCGGTATCGAAACCGATCAGAACTGTGAAACCCGCATTAAAGGTCTGTTCGCCGTGGGTGAATGTTCCTCTGTTGGTCTGCACGGTGCAAACCGTCTGGGCTCCAACTCCCTGGCGGAACTGGTGGTCTTCGGCCGTCTGGCCGGTGAACAAGCGACAGAGCGTGCAGCAACTGCCGGTAATGGCAACGAAGCGGCAATTGAAGCGCAGGCAGCTGGCGTTGAACAACGTCTGAAAGATCTGGTTAACCAGGATGGCGGCGAAAACTGGGCGAAGATCCGCGACGAAATGGGCCTGGCAATGGAAGAAGGCTGCGGTATCTACCGTACGCCGGAACTGATGCAGAAAACCATCGACAAGCTGGCTGAGCTGCAGGAACGCTTCAAGCGCGTGCGCATCACCGACACTTCCAGCGTGTTCAACACCGACCTGCTCTACACCATTGAACTGGGCCACGGTCTGAACGTTGCTGAATGTATGGCGCACTCCGCAATGGCACGTAAAGAGTCCCGCGGCGCACACCAGCGTCTGGACGAAGGTTGCACCGAGCGTGACGACGTCAACTTCCTCAAACACACCCTCGCCTTCCGCGATGCTGATGGCACGACTCGCCTGGAGTACAGCGACGTGAAGATTACTACGCTGCCGCCAGCTAAACGCGTTTACGGTGGCGAAGCGGATGCAGCCGATAAGGCGGAAGCAGCCAATAAGAAGGAGAAGGCGAATGGCTGAGATGAAAAACCTGAAAATTGAGGTGGTGCGCTATAACCCGGAAGTCGATACCGCACCGCATAGCGCATTCTATGAAGTGCCTTATGACGCAACTACCTCATTACTGGATGC</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>1575</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="3">
@@ -2968,41 +1854,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del</t>
+          <t>aceE_del</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>GTGCAAACCTTTCAAGCCGA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>GCATCCAGTAATGAGGTAGTTGC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>51.55740734956845</v>
+        <v>53.88563789537318</v>
       </c>
       <c r="F3" t="n">
-        <v>54.98004213215899</v>
+        <v>53.60446091066876</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.206200170467866</v>
+        <v>-36.72066710191646</v>
       </c>
       <c r="H3" t="n">
-        <v>31.44122408679118</v>
+        <v>-19.74939798369297</v>
       </c>
       <c r="I3" t="n">
-        <v>-48.36656690855659</v>
+        <v>-5.18606867495771</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
+          <t>GTGCAAACCTTTCAAGCCGATCTTGCCATTGTAGGCGCCGGTGGCGCGGGATTACGTGCTGCAATTGCTGCCGCGCAGGCAAATCCAAATGCAAAAATCGCACTAATCTCAAAAGTATACCCGATGCGTAGCCATACCGTTGCTGCAGAAGGGGGCTCCGCCGCTGTCGCGCAGGATCATGACAGCTTCGAATATCACTTTCACGATACAGTAGCGGGTGGCGACTGGTTGTGTGAGCAGGATGTCGTGGATTATTTCGTCCACCACTGCCCAACCGAAATGACCCAACTGGAACTGTGGGGGTGCCCATGGAGCCGTCGCCCGGATGGTAGCGTCAACGTACGTCGCTTCGGCGGCATGAAAATCGAGCGTACCTGGTTCGCCGCCGATAAGACCGGCTTCCATATGCTGCACACGCTGTTCCAGACCTCTCTGCAATTCCCGCAGATCCAGCGTTTTGACGAACATTTCGTGCTGGATATTCTGGTTGATGATGGTCATGTTCGCGGCCTGGTAGCAATGAACATGATGGAAGGCACGCTGGTGCAGATCCGTGCTAACGCGGTCGTTATGGCTACCGGCGGTGCGGGTCGCGTTTATCGTTACAACACCAACGGCGGCATCGTTACCGGTGACGGTATGGGTATGGCGCTAAGCCACGGCGTTCCGCTGCGTGACATGGAATTCGTTCAGTATCACCCAACCGGTCTGCCAGGTTCCGGTATCCTGATGACCGAAGGCTGCCGTGGTGAAGGCGGTATTCTGGTCAACAAAAATGGCTACCGTTATCTGCAAGATTACGGCATGGGCCCGGAAACTCCGCTGGGCGAGCCGAAAAACAAATATATGGAACTGGGTCCACGCGACAAAGTTTCTCAGGCCTTCTGGCACGAATGGCGTAAAGGCAACACCATCTCCACGCCGCGTGGTGATGTGGTTTATCTCGACCTGCGTCACCTCGGCGAGAAAAAACTGCATGAACGTCTGCCGTTCATCTGCGAACTGGCGAAAGCGTACGTTGGCGTCGATCCGGTTAAAGAACCGATTCCGGTACGTCCGACCGCACACTACACCATGGGCGGTATCGAAACCGATCAGAACTGTGAAACCCGCATTAAAGGTCTGTTCGCCGTGGGTGAATGTTCCTCTGTTGGTCTGCACGGTGCAAACCGTCTGGGCTCCAACTCCCTGGCGGAACTGGTGGTCTTCGGCCGTCTGGCCGGTGAACAAGCGACAGAGCGTGCAGCAACTGCCGGTAATGGCAACGAAGCGGCAATTGAAGCGCAGGCAGCTGGCGTTGAACAACGTCTGAAAGATCTGGTTAACCAGGATGGCGGCGAAAACTGGGCGAAGATCCGCGACGAAATGGGCCTGGCAATGGAAGAAGGCTGCGGTATCTACCGTACGCCGGAACTGATGCAGAAAACCATCGACAAGCTGGCTGAGCTGCAGGAACGCTTCAAGCGCGTGCGCATCACCGACACTTCCAGCGTGTTCAACACCGACCTGCTCTACACCATTGAACTGGGCCACGGTCTGAACGTTGCTGAATGTATGGCGCACTCCGCAATGGCACGTAAAGAGTCCCGCGGCGCACACCAGCGTCTGGACGAAGGTTGCACCGAGCGTGACGACGTCAACTTCCTCAAACACACCCTCGCCTTCCGCGATGCTGATGGCACGACTCGCCTGGAGTACAGCGACGTGAAGATTACTACGCTGCCGCCAGCTAAACGCGTTTACGGTGGCGAAGCGGATGCAGCCGATAAGGCGGAAGCAGCCAATAAGAAGGAGAAGGCGAATGGCTGAGATGAAAAACCTGAAAATTGAGGTGGTGCGCTATAACCCGGAAGTCGATACCGCACCGCATAGCGCATTCTATGAAGTGCCTTATGACGCAACTACCTCATTACTGGATGC</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1575</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="4">
@@ -3011,41 +1897,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins</t>
+          <t>pntA_promoter_sub</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>GTGCAAACCTTTCAAGCCGA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>GCATCCAGTAATGAGGTAGTTGC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>51.55740734956845</v>
+        <v>53.88563789537318</v>
       </c>
       <c r="F4" t="n">
-        <v>54.98004213215899</v>
+        <v>53.60446091066876</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.206200170467866</v>
+        <v>-36.72066710191646</v>
       </c>
       <c r="H4" t="n">
-        <v>31.44122408679118</v>
+        <v>-19.74939798369297</v>
       </c>
       <c r="I4" t="n">
-        <v>-48.36656690855659</v>
+        <v>-5.18606867495771</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
+          <t>GTGCAAACCTTTCAAGCCGATCTTGCCATTGTAGGCGCCGGTGGCGCGGGATTACGTGCTGCAATTGCTGCCGCGCAGGCAAATCCAAATGCAAAAATCGCACTAATCTCAAAAGTATACCCGATGCGTAGCCATACCGTTGCTGCAGAAGGGGGCTCCGCCGCTGTCGCGCAGGATCATGACAGCTTCGAATATCACTTTCACGATACAGTAGCGGGTGGCGACTGGTTGTGTGAGCAGGATGTCGTGGATTATTTCGTCCACCACTGCCCAACCGAAATGACCCAACTGGAACTGTGGGGGTGCCCATGGAGCCGTCGCCCGGATGGTAGCGTCAACGTACGTCGCTTCGGCGGCATGAAAATCGAGCGTACCTGGTTCGCCGCCGATAAGACCGGCTTCCATATGCTGCACACGCTGTTCCAGACCTCTCTGCAATTCCCGCAGATCCAGCGTTTTGACGAACATTTCGTGCTGGATATTCTGGTTGATGATGGTCATGTTCGCGGCCTGGTAGCAATGAACATGATGGAAGGCACGCTGGTGCAGATCCGTGCTAACGCGGTCGTTATGGCTACCGGCGGTGCGGGTCGCGTTTATCGTTACAACACCAACGGCGGCATCGTTACCGGTGACGGTATGGGTATGGCGCTAAGCCACGGCGTTCCGCTGCGTGACATGGAATTCGTTCAGTATCACCCAACCGGTCTGCCAGGTTCCGGTATCCTGATGACCGAAGGCTGCCGTGGTGAAGGCGGTATTCTGGTCAACAAAAATGGCTACCGTTATCTGCAAGATTACGGCATGGGCCCGGAAACTCCGCTGGGCGAGCCGAAAAACAAATATATGGAACTGGGTCCACGCGACAAAGTTTCTCAGGCCTTCTGGCACGAATGGCGTAAAGGCAACACCATCTCCACGCCGCGTGGTGATGTGGTTTATCTCGACCTGCGTCACCTCGGCGAGAAAAAACTGCATGAACGTCTGCCGTTCATCTGCGAACTGGCGAAAGCGTACGTTGGCGTCGATCCGGTTAAAGAACCGATTCCGGTACGTCCGACCGCACACTACACCATGGGCGGTATCGAAACCGATCAGAACTGTGAAACCCGCATTAAAGGTCTGTTCGCCGTGGGTGAATGTTCCTCTGTTGGTCTGCACGGTGCAAACCGTCTGGGCTCCAACTCCCTGGCGGAACTGGTGGTCTTCGGCCGTCTGGCCGGTGAACAAGCGACAGAGCGTGCAGCAACTGCCGGTAATGGCAACGAAGCGGCAATTGAAGCGCAGGCAGCTGGCGTTGAACAACGTCTGAAAGATCTGGTTAACCAGGATGGCGGCGAAAACTGGGCGAAGATCCGCGACGAAATGGGCCTGGCAATGGAAGAAGGCTGCGGTATCTACCGTACGCCGGAACTGATGCAGAAAACCATCGACAAGCTGGCTGAGCTGCAGGAACGCTTCAAGCGCGTGCGCATCACCGACACTTCCAGCGTGTTCAACACCGACCTGCTCTACACCATTGAACTGGGCCACGGTCTGAACGTTGCTGAATGTATGGCGCACTCCGCAATGGCACGTAAAGAGTCCCGCGGCGCACACCAGCGTCTGGACGAAGGTTGCACCGAGCGTGACGACGTCAACTTCCTCAAACACACCCTCGCCTTCCGCGATGCTGATGGCACGACTCGCCTGGAGTACAGCGACGTGAAGATTACTACGCTGCCGCCAGCTAAACGCGTTTACGGTGGCGAAGCGGATGCAGCCGATAAGGCGGAAGCAGCCAATAAGAAGGAGAAGGCGAATGGCTGAGATGAAAAACCTGAAAATTGAGGTGGTGCGCTATAACCCGGAAGTCGATACCGCACCGCATAGCGCATTCTATGAAGTGCCTTATGACGCAACTACCTCATTACTGGATGC</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>1575</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="5">
@@ -3054,256 +1940,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub</t>
+          <t>Cgl1452_ins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>GTGCAAACCTTTCAAGCCGA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>GCATCCAGTAATGAGGTAGTTGC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>51.55740734956845</v>
+        <v>53.88563789537318</v>
       </c>
       <c r="F5" t="n">
-        <v>54.98004213215899</v>
+        <v>53.60446091066876</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.206200170467866</v>
+        <v>-36.72066710191646</v>
       </c>
       <c r="H5" t="n">
-        <v>31.44122408679118</v>
+        <v>-19.74939798369297</v>
       </c>
       <c r="I5" t="n">
-        <v>-48.36656690855659</v>
+        <v>-5.18606867495771</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
+          <t>GTGCAAACCTTTCAAGCCGATCTTGCCATTGTAGGCGCCGGTGGCGCGGGATTACGTGCTGCAATTGCTGCCGCGCAGGCAAATCCAAATGCAAAAATCGCACTAATCTCAAAAGTATACCCGATGCGTAGCCATACCGTTGCTGCAGAAGGGGGCTCCGCCGCTGTCGCGCAGGATCATGACAGCTTCGAATATCACTTTCACGATACAGTAGCGGGTGGCGACTGGTTGTGTGAGCAGGATGTCGTGGATTATTTCGTCCACCACTGCCCAACCGAAATGACCCAACTGGAACTGTGGGGGTGCCCATGGAGCCGTCGCCCGGATGGTAGCGTCAACGTACGTCGCTTCGGCGGCATGAAAATCGAGCGTACCTGGTTCGCCGCCGATAAGACCGGCTTCCATATGCTGCACACGCTGTTCCAGACCTCTCTGCAATTCCCGCAGATCCAGCGTTTTGACGAACATTTCGTGCTGGATATTCTGGTTGATGATGGTCATGTTCGCGGCCTGGTAGCAATGAACATGATGGAAGGCACGCTGGTGCAGATCCGTGCTAACGCGGTCGTTATGGCTACCGGCGGTGCGGGTCGCGTTTATCGTTACAACACCAACGGCGGCATCGTTACCGGTGACGGTATGGGTATGGCGCTAAGCCACGGCGTTCCGCTGCGTGACATGGAATTCGTTCAGTATCACCCAACCGGTCTGCCAGGTTCCGGTATCCTGATGACCGAAGGCTGCCGTGGTGAAGGCGGTATTCTGGTCAACAAAAATGGCTACCGTTATCTGCAAGATTACGGCATGGGCCCGGAAACTCCGCTGGGCGAGCCGAAAAACAAATATATGGAACTGGGTCCACGCGACAAAGTTTCTCAGGCCTTCTGGCACGAATGGCGTAAAGGCAACACCATCTCCACGCCGCGTGGTGATGTGGTTTATCTCGACCTGCGTCACCTCGGCGAGAAAAAACTGCATGAACGTCTGCCGTTCATCTGCGAACTGGCGAAAGCGTACGTTGGCGTCGATCCGGTTAAAGAACCGATTCCGGTACGTCCGACCGCACACTACACCATGGGCGGTATCGAAACCGATCAGAACTGTGAAACCCGCATTAAAGGTCTGTTCGCCGTGGGTGAATGTTCCTCTGTTGGTCTGCACGGTGCAAACCGTCTGGGCTCCAACTCCCTGGCGGAACTGGTGGTCTTCGGCCGTCTGGCCGGTGAACAAGCGACAGAGCGTGCAGCAACTGCCGGTAATGGCAACGAAGCGGCAATTGAAGCGCAGGCAGCTGGCGTTGAACAACGTCTGAAAGATCTGGTTAACCAGGATGGCGGCGAAAACTGGGCGAAGATCCGCGACGAAATGGGCCTGGCAATGGAAGAAGGCTGCGGTATCTACCGTACGCCGGAACTGATGCAGAAAACCATCGACAAGCTGGCTGAGCTGCAGGAACGCTTCAAGCGCGTGCGCATCACCGACACTTCCAGCGTGTTCAACACCGACCTGCTCTACACCATTGAACTGGGCCACGGTCTGAACGTTGCTGAATGTATGGCGCACTCCGCAATGGCACGTAAAGAGTCCCGCGGCGCACACCAGCGTCTGGACGAAGGTTGCACCGAGCGTGACGACGTCAACTTCCTCAAACACACCCTCGCCTTCCGCGATGCTGATGGCACGACTCGCCTGGAGTACAGCGACGTGAAGATTACTACGCTGCCGCCAGCTAAACGCGTTTACGGTGGCGAAGCGGATGCAGCCGATAAGGCGGAAGCAGCCAATAAGAAGGAGAAGGCGAATGGCTGAGATGAAAAACCTGAAAATTGAGGTGGTGCGCTATAACCCGGAAGTCGATACCGCACCGCATAGCGCATTCTATGAAGTGCCTTATGACGCAACTACCTCATTACTGGATGC</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_15to19_sub</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>51.55740734956845</v>
-      </c>
-      <c r="F6" t="n">
-        <v>54.98004213215899</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-7.206200170467866</v>
-      </c>
-      <c r="H6" t="n">
-        <v>31.44122408679118</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-48.36656690855659</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_90_ins</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>51.55740734956845</v>
-      </c>
-      <c r="F7" t="n">
-        <v>54.98004213215899</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-7.206200170467866</v>
-      </c>
-      <c r="H7" t="n">
-        <v>31.44122408679118</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-48.36656690855659</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>51.55740734956845</v>
-      </c>
-      <c r="F8" t="n">
-        <v>54.98004213215899</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-7.206200170467866</v>
-      </c>
-      <c r="H8" t="n">
-        <v>31.44122408679118</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-48.36656690855659</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>51.55740734956845</v>
-      </c>
-      <c r="F9" t="n">
-        <v>54.98004213215899</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-7.206200170467866</v>
-      </c>
-      <c r="H9" t="n">
-        <v>31.44122408679118</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-48.36656690855659</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>51.55740734956845</v>
-      </c>
-      <c r="F10" t="n">
-        <v>54.98004213215899</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-7.206200170467866</v>
-      </c>
-      <c r="H10" t="n">
-        <v>31.44122408679118</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-48.36656690855659</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>1575</v>
+        <v>1920</v>
       </c>
     </row>
   </sheetData>

--- a/FDD/test_output/Design_results.xlsx
+++ b/FDD/test_output/Design_results.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,36 +521,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pntA_promoter_sub</t>
+          <t>aceE_del</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CGAGGTTTGTGCCGTAAAGC</t>
+          <t>GCGTCACAGACATGAAATTGGT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AGGTATAATGCTAGCACGAATCTAGAGAAAGATTGGACGTACCATAATGCGAATTGGCATACCAAGAG</t>
+          <t>AGCCATTATTCTTTTACCTCGGGTTATTCCTTATCTATCT</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCAT</t>
+          <t>GCGTCACAGACATGAAATTGGTAAGACCAATTGACTTCGGCAAGTGGCTTAAGACAGGAACTCATGGCCTACAGCAAAATCCGCCAACCAAAACTCTCCGATGTGATTGAGCAGCAACTGGAGTTTTTGATCCTCGAAGGCACTCTCCGCCCGGGCGAAAAACTCCCACCGGAACGCGAACTGGCAAAACAGTTTGACGTCTCCCGTCCCTCCTTGCGTGAGGCGATTCAACGTCTCGAAGCGAAGGGCTTGTTGCTTCGTCGCCAGGGTGGCGGCACTTTTGTCCAGAGCAGCCTATGGCAAAGCTTCAGCGATCCGCTGGTGGAGCTGCTCTCCGACCATCCTGAGTCACAGTATGACTTGCTCGAAACACGACACGCCCTGGAAGGTATCGCCGCTTATTACGCCGCGCTGCGTAGTACCGATGAAGACAAGGAACGCATCCGTGAACTCCACCACGCCATAGAGCTGGCGCAGCAGTCTGGCGATCTGGACGCGGAATCAAACGCCGTACTCCAGTATCAGATTGCCGTCACCGAAGCGGCCCACAATGTGGTTCTGCTTCATCTGCTAAGGTGTATGGAGCCGATGTTGGCCCAGAATGTCCGCCAGAACTTCGAATTGCTCTATTCGCGTCGCGAGATGCTGCCGCTGGTGAGTAGTCACCGCACCCGCATATTTGAAGCGATTATGGCCGGTAAGCCGGAAGAAGCGCGCGAAGCATCGCATCGCCATCTGGCCTTTATCGAAGAAATTTTGCTCGACAGAAGTCGTGAAGAGAGCCGCCGTGAGCGTTCTCTGCGTCGTCTGGAGCAACGAAAGAATTAGTGATTTTTCTGGTAAAAATTATCCAGAAGATGTTGTAAATCAAGCGCATATAAAAGCGCGGCAACTAAACGTAGAACCTGTCTTATTGAGCTTTCCGGCGAGAGTTCAATGGGACAGGTTCCAGAAAACTCAACGTTATTAGATAGATAAGGAATAACCC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ACCTGAATCGGCGGTGCCGGCCAGGTAATTTCGCCCGCACGGATCACGGTCACGCCGCGAATCACCACATCATCAAAATCAACAGTGATATTGCCGTCTTTCTCTTTGCACAACAGTTTCAGCAGATTAACGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCAT</t>
+          <t>TACGTAAAGTCTACATTTGTGCATAGTTACAACTTTGAAACGTTATATATGTCAAGTTGTTAAAATGTGCACAGTTTCATGATTTCAATCAAAACCTGTATGGACATAAGGTGAATACTTTGTTACTTTAGCGTCACAGACATGAAATTGGTAAGACCAATTGACTTCGGCAAGTGGCTTAAGACAGGAACTCATGGCCTACAGCAAAATCCGCCAACCAAAACTCTCCGATGTGATTGAGCAGCAACTGGAGTTTTTGATCCTCGAAGGCACTCTCCGCCCGGGCGAAAAACTCCCACCGGAACGCGAACTGGCAAAACAGTTTGACGTCTCCCGTCCCTCCTTGCGTGAGGCGATTCAACGTCTCGAAGCGAAGGGCTTGTTGCTTCGTCGCCAGGGTGGCGGCACTTTTGTCCAGAGCAGCCTATGGCAAAGCTTCAGCGATCCGCTGGTGGAGCTGCTCTCCGACCATCCTGAGTCACAGTATGACTTGCTCGAAACACGACACGCCCTGGAAGGTATCGCCGCTTATTACGCCGCGCTGCGTAGTACCGATGAAGACAAGGAACGCATCCGTGAACTCCACCACGCCATAGAGCTGGCGCAGCAGTCTGGCGATCTGGACGCGGAATCAAACGCCGTACTCCAGTATCAGATTGCCGTCACCGAAGCGGCCCACAATGTGGTTCTGCTTCATCTGCTAAGGTGTATGGAGCCGATGTTGGCCCAGAATGTCCGCCAGAACTTCGAATTGCTCTATTCGCGTCGCGAGATGCTGCCGCTGGTGAGTAGTCACCGCACCCGCATATTTGAAGCGATTATGGCCGGTAAGCCGGAAGAAGCGCGCGAAGCATCGCATCGCCATCTGGCCTTTATCGAAGAAATTTTGCTCGACAGAAGTCGTGAAGAGAGCCGCCGTGAGCGTTCTCTGCGTCGTCTGGAGCAACGAAAGAATTAGTGATTTTTCTGGTAAAAATTATCCAGAAGATGTTGTAAATCAAGCGCATATAAAAGCGCGGCAACTAAACGTAGAACCTGTCTTATTGAGCTTTCCGGCGAGAGTTCAATGGGACAGGTTCCAGAAAACTCAACGTTATTAGATAGATAAGGAATAACCC</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCATTATGGTACGTCCAATCTTTCTCTAGATTCGTGCTAGCATTATACCT</t>
+          <t>GCGTCACAGACATGAAATTGGTAAGACCAATTGACTTCGGCAAGTGGCTTAAGACAGGAACTCATGGCCTACAGCAAAATCCGCCAACCAAAACTCTCCGATGTGATTGAGCAGCAACTGGAGTTTTTGATCCTCGAAGGCACTCTCCGCCCGGGCGAAAAACTCCCACCGGAACGCGAACTGGCAAAACAGTTTGACGTCTCCCGTCCCTCCTTGCGTGAGGCGATTCAACGTCTCGAAGCGAAGGGCTTGTTGCTTCGTCGCCAGGGTGGCGGCACTTTTGTCCAGAGCAGCCTATGGCAAAGCTTCAGCGATCCGCTGGTGGAGCTGCTCTCCGACCATCCTGAGTCACAGTATGACTTGCTCGAAACACGACACGCCCTGGAAGGTATCGCCGCTTATTACGCCGCGCTGCGTAGTACCGATGAAGACAAGGAACGCATCCGTGAACTCCACCACGCCATAGAGCTGGCGCAGCAGTCTGGCGATCTGGACGCGGAATCAAACGCCGTACTCCAGTATCAGATTGCCGTCACCGAAGCGGCCCACAATGTGGTTCTGCTTCATCTGCTAAGGTGTATGGAGCCGATGTTGGCCCAGAATGTCCGCCAGAACTTCGAATTGCTCTATTCGCGTCGCGAGATGCTGCCGCTGGTGAGTAGTCACCGCACCCGCATATTTGAAGCGATTATGGCCGGTAAGCCGGAAGAAGCGCGCGAAGCATCGCATCGCCATCTGGCCTTTATCGAAGAAATTTTGCTCGACAGAAGTCGTGAAGAGAGCCGCCGTGAGCGTTCTCTGCGTCGTCTGGAGCAACGAAAGAATTAGTGATTTTTCTGGTAAAAATTATCCAGAAGATGTTGTAAATCAAGCGCATATAAAAGCGCGGCAACTAAACGTAGAACCTGTCTTATTGAGCTTTCCGGCGAGAGTTCAATGGGACAGGTTCCAGAAAACTCAACGTTATTAGATAGATAAGGAATAACCCGAGGTAAAAGAATAATGGCT</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1040</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="4">
@@ -559,35 +559,73 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>pntA_promoter_sub</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CGAGGTTTGTGCCGTAAAGC</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>AGGTATAATGCTAGCACGAATCTAGAGAAAGATTGGACGTACCATAATGCGAATTGGCATACCAAGAG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCAT</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ACCTGAATCGGCGGTGCCGGCCAGGTAATTTCGCCCGCACGGATCACGGTCACGCCGCGAATCACCACATCATCAAAATCAACAGTGATATTGCCGTCTTTCTCTTTGCACAACAGTTTCAGCAGATTAACGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCAT</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCATTATGGTACGTCCAATCTTTCTCTAGATTCGTGCTAGCATTATACCT</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Cgl1452_ins</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>CACTGCGCGGGATTTTATGG</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>TCAATACTCTTTTTGGCGCGCATGTGAACGCCTGACCAGG</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>CACTGCGCGGGATTTTATGGAGATTCACTTACCTAAAGATTTACGTGAACTGTGCGATCTCGATAGCTTAAAACTGGAATCCGCCAGCTTTGTCGATGAAAAATTGCGGGCGCTACACTCCGATATTTTATGGTCGGTAAAGACCCGCGAAGGCGATGGCTATATCTATGTGGTGATTGAACATCAGAGCCGCGAGGACATTCATATGGCCTTTCGCCTGATGCGCTATTCCATGGCGGTGATGTAGCGCCATATAGAGCATGATAAACGCCAGCCGCTACCGTTGGTCATCCCGATGCTATTTTATCACGGTAGCCGTAGTCCTTACCCCTGGTCCCTGTGCTGGCTGGACGAATTTGCCGACCCGACTACCGCACGGAAGCTTTATAACGCCGCGTTCCCGCTGGTGGATGTTACTGTCGTGCCAGACGACGAGATTGTGCAGCATCGCAGAGTCGCCCTGTTGGAGTTGATCCAAAAGCATATTCGCCAGCGCGATCTGATGGGGCTTATCGATCAACTGGTAGTATTACTGGTTACAGAGTGTGCTAATGACAGCCAGATAACTGCGCTGTTAAATTACATTTTACTGACTGGCGATGAAGCGCGTTTTAATGAGTTTATCAGTGAACTTACCCGTCGAATGCCACAACACAGGGAGCGAATAATGACGATTGCAGAGCGAATTCATAATGATGGATATATAAAAGGGGAGCAGCGCATTCTTCGATTGTTGTTGCAGAATGGGGCGGATCCTGAATGGATACAAAAGATTACCGGACTTTCGGCAGAGCAAATGCAGGCATTAAGGCAGCCCTTGCCTGAGCGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATG</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>CGGGTGAGAATGGTTTTGTTAGTCGCTAAAGTCAGGCCATCTTTTTCAACAGGTGATGGATCGCCATGACAAACTTCACGACCAGCACGCCGCATGATGCATTATTTAAAACCTTTCTCACGCACCCTGACACTGCGCGGGATTTTATGGAGATTCACTTACCTAAAGATTTACGTGAACTGTGCGATCTCGATAGCTTAAAACTGGAATCCGCCAGCTTTGTCGATGAAAAATTGCGGGCGCTACACTCCGATATTTTATGGTCGGTAAAGACCCGCGAAGGCGATGGCTATATCTATGTGGTGATTGAACATCAGAGCCGCGAGGACATTCATATGGCCTTTCGCCTGATGCGCTATTCCATGGCGGTGATGTAGCGCCATATAGAGCATGATAAACGCCAGCCGCTACCGTTGGTCATCCCGATGCTATTTTATCACGGTAGCCGTAGTCCTTACCCCTGGTCCCTGTGCTGGCTGGACGAATTTGCCGACCCGACTACCGCACGGAAGCTTTATAACGCCGCGTTCCCGCTGGTGGATGTTACTGTCGTGCCAGACGACGAGATTGTGCAGCATCGCAGAGTCGCCCTGTTGGAGTTGATCCAAAAGCATATTCGCCAGCGCGATCTGATGGGGCTTATCGATCAACTGGTAGTATTACTGGTTACAGAGTGTGCTAATGACAGCCAGATAACTGCGCTGTTAAATTACATTTTACTGACTGGCGATGAAGCGCGTTTTAATGAGTTTATCAGTGAACTTACCCGTCGAATGCCACAACACAGGGAGCGAATAATGACGATTGCAGAGCGAATTCATAATGATGGATATATAAAAGGGGAGCAGCGCATTCTTCGATTGTTGTTGCAGAATGGGGCGGATCCTGAATGGATACAAAAGATTACCGGACTTTCGGCAGAGCAAATGCAGGCATTAAGGCAGCCCTTGCCTGAGCGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATG</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>CACTGCGCGGGATTTTATGGAGATTCACTTACCTAAAGATTTACGTGAACTGTGCGATCTCGATAGCTTAAAACTGGAATCCGCCAGCTTTGTCGATGAAAAATTGCGGGCGCTACACTCCGATATTTTATGGTCGGTAAAGACCCGCGAAGGCGATGGCTATATCTATGTGGTGATTGAACATCAGAGCCGCGAGGACATTCATATGGCCTTTCGCCTGATGCGCTATTCCATGGCGGTGATGTAGCGCCATATAGAGCATGATAAACGCCAGCCGCTACCGTTGGTCATCCCGATGCTATTTTATCACGGTAGCCGTAGTCCTTACCCCTGGTCCCTGTGCTGGCTGGACGAATTTGCCGACCCGACTACCGCACGGAAGCTTTATAACGCCGCGTTCCCGCTGGTGGATGTTACTGTCGTGCCAGACGACGAGATTGTGCAGCATCGCAGAGTCGCCCTGTTGGAGTTGATCCAAAAGCATATTCGCCAGCGCGATCTGATGGGGCTTATCGATCAACTGGTAGTATTACTGGTTACAGAGTGTGCTAATGACAGCCAGATAACTGCGCTGTTAAATTACATTTTACTGACTGGCGATGAAGCGCGTTTTAATGAGTTTATCAGTGAACTTACCCGTCGAATGCCACAACACAGGGAGCGAATAATGACGATTGCAGAGCGAATTCATAATGATGGATATATAAAAGGGGAGCAGCGCATTCTTCGATTGTTGTTGCAGAATGGGGCGGATCCTGAATGGATACAAAAGATTACCGGACTTTCGGCAGAGCAAATGCAGGCATTAAGGCAGCCCTTGCCTGAGCGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATGCGCGCCAAAAAGAGTATTGA</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>993</v>
       </c>
     </row>
@@ -602,7 +640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,35 +729,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pntA_promoter_sub</t>
+          <t>aceE_del</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCT</t>
+          <t>GAGGTAAAAGAATAATGGCTATCGA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ACTTGGTGATGCGGTAGTCG</t>
+          <t>TTAACACCAAACTCGCGTGC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGT</t>
+          <t>GAGGTAAAAGAATAATGGCTATCGAAATCAAAGTACCGGACATCGGGGCTGATGAAGTTGAAATCACCGAGATCCTGGTCAAAGTGGGCGACAAAGTTGAAGCCGAACAGTCGCTGATCACCGTAGAAGGCGACAAAGCCTCTATGGAAGTTCCGTCTCCGCAGGCGGGTATCGTTAAAGAGATCAAAGTCTCTGTTGGCGATAAAACCCAGACCGGCGCACTGATTATGATTTTCGATTCCGCCGACGGTGCAGCAGACGCTGCACCTGCTCAGGCAGAAGAGAAGAAAGAAGCAGCTCCGGCAGCAGCACCAGCGGCTGCGGCGGCAAAAGACGTTAACGTTCCGGATATCGGCAGCGACGAAGTTGAAGTGACCGAAATCCTGGTGAAAGTTGGCGATAAAGTTGAAGCTGAACAGTCGCTGATCACCGTAGAAGGCGACAAGGCTTCTATGGAAGTTCCGGCTCCGTTTGCTGGCACCGTGAAAGAGATCAAAGTGAACGTGGGTGACAAAGTGTCTACCGGCTCGCTGATTATGGTCTTCGAAGTCGCGGGTGAAGCAGGCGCGGCAGCTCCGGCCGCTAAACAGGAAGCAGCTCCGGCAGCGGCCCCTGCACCAGCGGCTGGCGTGAAAGAAGTTAACGTTCCGGATATCGGCGGTGACGAAGTTGAAGTGACTGAAGTGATGGTGAAAGTGGGCGACAAAGTTGCCGCTGAACAGTCACTGATCACCGTAGAAGGCGACAAAGCTTCTATGGAAGTTCCGGCGCCGTTTGCAGGCGTCGTGAAGGAACTGAAAGTCAACGTTGGCGATAAAGTGAAAACTGGCTCGCTGATTATGATCTTCGAAGTTGAAGGCGCAGCGCCTGCGGCAGCTCCTGCGAAACAGGAAGCGGCAGCGCCGGCACCGGCAGCAAAAGCTGAAGCCCCGGCAGCAGCACCAGCTGCGAAAGCGGAAGGCAAATCTGAATTTGCTGAAAACGACGCTTATGTTCACGCGACTCCGCTGATCCGCCGTCTGGCACGCGAGTTTGGTGTTAA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1032</v>
+        <v>1042</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>GTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGTTCTGAAGTCGGTCGCTTCTTTGAAACCCAGTCATCAAAAGGCGGGCGTTACACCGTCACGCTCCCGGATGGCACTAAAGTCGAAGAACTGAACAAAGCGACCGCAGCGATGATGGTCCCGTTCGACAGCA</t>
+          <t>GAGGTAAAAGAATAATGGCTATCGAAATCAAAGTACCGGACATCGGGGCTGATGAAGTTGAAATCACCGAGATCCTGGTCAAAGTGGGCGACAAAGTTGAAGCCGAACAGTCGCTGATCACCGTAGAAGGCGACAAAGCCTCTATGGAAGTTCCGTCTCCGCAGGCGGGTATCGTTAAAGAGATCAAAGTCTCTGTTGGCGATAAAACCCAGACCGGCGCACTGATTATGATTTTCGATTCCGCCGACGGTGCAGCAGACGCTGCACCTGCTCAGGCAGAAGAGAAGAAAGAAGCAGCTCCGGCAGCAGCACCAGCGGCTGCGGCGGCAAAAGACGTTAACGTTCCGGATATCGGCAGCGACGAAGTTGAAGTGACCGAAATCCTGGTGAAAGTTGGCGATAAAGTTGAAGCTGAACAGTCGCTGATCACCGTAGAAGGCGACAAGGCTTCTATGGAAGTTCCGGCTCCGTTTGCTGGCACCGTGAAAGAGATCAAAGTGAACGTGGGTGACAAAGTGTCTACCGGCTCGCTGATTATGGTCTTCGAAGTCGCGGGTGAAGCAGGCGCGGCAGCTCCGGCCGCTAAACAGGAAGCAGCTCCGGCAGCGGCCCCTGCACCAGCGGCTGGCGTGAAAGAAGTTAACGTTCCGGATATCGGCGGTGACGAAGTTGAAGTGACTGAAGTGATGGTGAAAGTGGGCGACAAAGTTGCCGCTGAACAGTCACTGATCACCGTAGAAGGCGACAAAGCTTCTATGGAAGTTCCGGCGCCGTTTGCAGGCGTCGTGAAGGAACTGAAAGTCAACGTTGGCGATAAAGTGAAAACTGGCTCGCTGATTATGATCTTCGAAGTTGAAGGCGCAGCGCCTGCGGCAGCTCCTGCGAAACAGGAAGCGGCAGCGCCGGCACCGGCAGCAAAAGCTGAAGCCCCGGCAGCAGCACCAGCTGCGAAAGCGGAAGGCAAATCTGAATTTGCTGAAAACGACGCTTATGTTCACGCGACTCCGCTGATCCGCCGTCTGGCACGCGAGTTTGGTGTTAACCTTGCGAAAGTGAAGGGCACTGGCCGTAAAGGTCGTATCCTGCGCGAAGACGTTCAGGCTTACGTGAAAGAAGCTATCAAACGTGCAGAAGCAGCTCCGGCAGCGACTGGCGGTGGTATCCCTGGCATG</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>GTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGT</t>
+          <t>GAGGTAAAAGAATAATGGCTATCGAAATCAAAGTACCGGACATCGGGGCTGATGAAGTTGAAATCACCGAGATCCTGGTCAAAGTGGGCGACAAAGTTGAAGCCGAACAGTCGCTGATCACCGTAGAAGGCGACAAAGCCTCTATGGAAGTTCCGTCTCCGCAGGCGGGTATCGTTAAAGAGATCAAAGTCTCTGTTGGCGATAAAACCCAGACCGGCGCACTGATTATGATTTTCGATTCCGCCGACGGTGCAGCAGACGCTGCACCTGCTCAGGCAGAAGAGAAGAAAGAAGCAGCTCCGGCAGCAGCACCAGCGGCTGCGGCGGCAAAAGACGTTAACGTTCCGGATATCGGCAGCGACGAAGTTGAAGTGACCGAAATCCTGGTGAAAGTTGGCGATAAAGTTGAAGCTGAACAGTCGCTGATCACCGTAGAAGGCGACAAGGCTTCTATGGAAGTTCCGGCTCCGTTTGCTGGCACCGTGAAAGAGATCAAAGTGAACGTGGGTGACAAAGTGTCTACCGGCTCGCTGATTATGGTCTTCGAAGTCGCGGGTGAAGCAGGCGCGGCAGCTCCGGCCGCTAAACAGGAAGCAGCTCCGGCAGCGGCCCCTGCACCAGCGGCTGGCGTGAAAGAAGTTAACGTTCCGGATATCGGCGGTGACGAAGTTGAAGTGACTGAAGTGATGGTGAAAGTGGGCGACAAAGTTGCCGCTGAACAGTCACTGATCACCGTAGAAGGCGACAAAGCTTCTATGGAAGTTCCGGCGCCGTTTGCAGGCGTCGTGAAGGAACTGAAAGTCAACGTTGGCGATAAAGTGAAAACTGGCTCGCTGATTATGATCTTCGAAGTTGAAGGCGCAGCGCCTGCGGCAGCTCCTGCGAAACAGGAAGCGGCAGCGCCGGCACCGGCAGCAAAAGCTGAAGCCCCGGCAGCAGCACCAGCTGCGAAAGCGGAAGGCAAATCTGAATTTGCTGAAAACGACGCTTATGTTCACGCGACTCCGCTGATCCGCCGTCTGGCACGCGAGTTTGGTGTTAA</t>
         </is>
       </c>
     </row>
@@ -729,33 +767,71 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>pntA_promoter_sub</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCT</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ACTTGGTGATGCGGTAGTCG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>TTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGT</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1032</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>GTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGTTCTGAAGTCGGTCGCTTCTTTGAAACCCAGTCATCAAAAGGCGGGCGTTACACCGTCACGCTCCCGGATGGCACTAAAGTCGAAGAACTGAACAAAGCGACCGCAGCGATGATGGTCCCGTTCGACAGCA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>GTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGT</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Cgl1452_ins</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>GCTCCGAGGTTGAAGCTTAAGCATCCGGCATGAACAAAGC</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>CGATGTCGCTGGCGTTAATG</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>GCTCCGAGGTTGAAGCTTAAGCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACGGCCTCGCCAATTTGCTTCAGTGCTTCGCGATAGGTTTCGCTGAGCGGCAAAGCGCAGTTGATGCGCAGACAATTACGGTATTTGCCGGAAGCTGAGAAAATCGAGCCTGCCGCCACCTGGATTTTCATGCGGCACAGCTGCCGCGCGACGCAGACCATATCGACCTGTTCAGGCAATTCTATCCACAGTAAAAATCCGCCTTTCGGGCGCGTAATACAGATTTCGCAGGGAAAATATTCCCGTATCCAGCAGGTATAAAGCGCCAAATTGCGCTGATAGATCTGCCGCATCCGCCGGATATGGCGATGATAGTGACCTTCCAGCACAAACGTTGCCGCCGCCATTTGCGTGGACGGCACATTAAAGCTGCTGATGGCGTATTTCATATGCATCAGTTTATCGTGATAACGCCCCGGTGCGACCCAACCCACGCGCAGGCCTGGTGCAATACTTTTACTGAACGAGCTGCACAACAGCACTCGCCCGTCGATATCCCAGGAATGAATGGTCCGCGGGCGCGGATACTCCGTCGCCAGTTCGCCATAGACATCATCTTCAAAAATCACAATATCATGACGCTGAGCGAGAGAGAGAACGGCCCGTTTGCGCGCGTCCGGCATAATAAATCCCAGCGGATTATTACAGTTTGGCACCAGAATGATGCCTTTAATCGGCCACTGTTCCAGCGCCAGTTCCAGCGCTTCAACGCTGATGCCAGTTTCTGGATCGGTTGGGATTTCAATCACTTTCACGCCCATGCCGCGCAGCATCTGCATCGAACCGTAATAACAGGGGGATTCGACCGCGACAATATCGCCCGGTTTACACACTGCCATTAACGCCAGCGACATCG</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
         <v>1021</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>GCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACGGCCTCGCCAATTTGCTTCAGTGCTTCGCGATAGGTTTCGCTGAGCGGCAAAGCGCAGTTGATGCGCAGACAATTACGGTATTTGCCGGAAGCTGAGAAAATCGAGCCTGCCGCCACCTGGATTTTCATGCGGCACAGCTGCCGCGCGACGCAGACCATATCGACCTGTTCAGGCAATTCTATCCACAGTAAAAATCCGCCTTTCGGGCGCGTAATACAGATTTCGCAGGGAAAATATTCCCGTATCCAGCAGGTATAAAGCGCCAAATTGCGCTGATAGATCTGCCGCATCCGCCGGATATGGCGATGATAGTGACCTTCCAGCACAAACGTTGCCGCCGCCATTTGCGTGGACGGCACATTAAAGCTGCTGATGGCGTATTTCATATGCATCAGTTTATCGTGATAACGCCCCGGTGCGACCCAACCCACGCGCAGGCCTGGTGCAATACTTTTACTGAACGAGCTGCACAACAGCACTCGCCCGTCGATATCCCAGGAATGAATGGTCCGCGGGCGCGGATACTCCGTCGCCAGTTCGCCATAGACATCATCTTCAAAAATCACAATATCATGACGCTGAGCGAGAGAGAGAACGGCCCGTTTGCGCGCGTCCGGCATAATAAATCCCAGCGGATTATTACAGTTTGGCACCAGAATGATGCCTTTAATCGGCCACTGTTCCAGCGCCAGTTCCAGCGCTTCAACGCTGATGCCAGTTTCTGGATCGGTTGGGATTTCAATCACTTTCACGCCCATGCCGCGCAGCATCTGCATCGAACCGTAATAACAGGGGGATTCGACCGCGACAATATCGCCCGGTTTACACACTGCCATTAACGCCAGCGACATCGAGTTATGGCAGCCGCTGGTGATGATGATGTCATCGGCGGTGACCACCGAGCCGCTGTCGAGCATCAGGCGGGCAATCTGCTCTCGCAATACTCGCTGACCGGCTAACAAGTCATAACCGAGAACGGTTTG</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>GCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACGGCCTCGCCAATTTGCTTCAGTGCTTCGCGATAGGTTTCGCTGAGCGGCAAAGCGCAGTTGATGCGCAGACAATTACGGTATTTGCCGGAAGCTGAGAAAATCGAGCCTGCCGCCACCTGGATTTTCATGCGGCACAGCTGCCGCGCGACGCAGACCATATCGACCTGTTCAGGCAATTCTATCCACAGTAAAAATCCGCCTTTCGGGCGCGTAATACAGATTTCGCAGGGAAAATATTCCCGTATCCAGCAGGTATAAAGCGCCAAATTGCGCTGATAGATCTGCCGCATCCGCCGGATATGGCGATGATAGTGACCTTCCAGCACAAACGTTGCCGCCGCCATTTGCGTGGACGGCACATTAAAGCTGCTGATGGCGTATTTCATATGCATCAGTTTATCGTGATAACGCCCCGGTGCGACCCAACCCACGCGCAGGCCTGGTGCAATACTTTTACTGAACGAGCTGCACAACAGCACTCGCCCGTCGATATCCCAGGAATGAATGGTCCGCGGGCGCGGATACTCCGTCGCCAGTTCGCCATAGACATCATCTTCAAAAATCACAATATCATGACGCTGAGCGAGAGAGAGAACGGCCCGTTTGCGCGCGTCCGGCATAATAAATCCCAGCGGATTATTACAGTTTGGCACCAGAATGATGCCTTTAATCGGCCACTGTTCCAGCGCCAGTTCCAGCGCTTCAACGCTGATGCCAGTTTCTGGATCGGTTGGGATTTCAATCACTTTCACGCCCATGCCGCGCAGCATCTGCATCGAACCGTAATAACAGGGGGATTCGACCGCGACAATATCGCCCGGTTTACACACTGCCATTAACGCCAGCGACATCG</t>
         </is>
@@ -1431,7 +1507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1540,41 +1616,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pntA_promoter_sub</t>
+          <t>aceE_del</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TAATTTCGCCCGCACGGATCACGGTCACGCCGCGAATCACCACATCATCAAAATCAACAGTGATATTGCCGTCTTTCTCTTTGCACAACAGTTTCAGCAGATTAACGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCATTATGGTACGTCCAATCTTTCTCTAGATTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGTTCTGAAGTCGGTCGCTTCTTTGAAACCCAGTCATCAAAAGGCGGGCGTTACACCGTCACGCTCCCGGATGGCACTAAAGTCGAAGAACTGAACAAAGCGACCGCAGCGATGATGGTCCCGTTCGACA</t>
+          <t>ACGTAAAGTCTACATTTGTGCATAGTTACAACTTTGAAACGTTATATATGTCAAGTTGTTAAAATGTGCACAGTTTCATGATTTCAATCAAAACCTGTATGGACATAAGGTGAATACTTTGTTACTTTAGCGTCACAGACATGAAATTGGTAAGACCAATTGACTTCGGCAAGTGGCTTAAGACAGGAACTCATGGCCTACAGCAAAATCCGCCAACCAAAACTCTCCGATGTGATTGAGCAGCAACTGGAGTTTTTGATCCTCGAAGGCACTCTCCGCCCGGGCGAAAAACTCCCACCGGAACGCGAACTGGCAAAACAGTTTGACGTCTCCCGTCCCTCCTTGCGTGAGGCGATTCAACGTCTCGAAGCGAAGGGCTTGTTGCTTCGTCGCCAGGGTGGCGGCACTTTTGTCCAGAGCAGCCTATGGCAAAGCTTCAGCGATCCGCTGGTGGAGCTGCTCTCCGACCATCCTGAGTCACAGTATGACTTGCTCGAAACACGACACGCCCTGGAAGGTATCGCCGCTTATTACGCCGCGCTGCGTAGTACCGATGAAGACAAGGAACGCATCCGTGAACTCCACCACGCCATAGAGCTGGCGCAGCAGTCTGGCGATCTGGACGCGGAATCAAACGCCGTACTCCAGTATCAGATTGCCGTCACCGAAGCGGCCCACAATGTGGTTCTGCTTCATCTGCTAAGGTGTATGGAGCCGATGTTGGCCCAGAATGTCCGCCAGAACTTCGAATTGCTCTATTCGCGTCGCGAGATGCTGCCGCTGGTGAGTAGTCACCGCACCCGCATATTTGAAGCGATTATGGCCGGTAAGCCGGAAGAAGCGCGCGAAGCATCGCATCGCCATCTGGCCTTTATCGAAGAAATTTTGCTCGACAGAAGTCGTGAAGAGAGCCGCCGTGAGCGTTCTCTGCGTCGTCTGGAGCAACGAAAGAATTAGTGATTTTTCTGGTAAAAATTATCCAGAAGATGTTGTAAATCAAGCGCATATAAAAGCGCGGCAACTAAACGTAGAACCTGTCTTATTGAGCTTTCCGGCGAGAGTTCAATGGGACAGGTTCCAGAAAACTCAACGTTATTAGATAGATAAGGAATAACCCGAGGTAAAAGAATAATGGCTATCGAAATCAAAGTACCGGACATCGGGGCTGATGAAGTTGAAATCACCGAGATCCTGGTCAAAGTGGGCGACAAAGTTGAAGCCGAACAGTCGCTGATCACCGTAGAAGGCGACAAAGCCTCTATGGAAGTTCCGTCTCCGCAGGCGGGTATCGTTAAAGAGATCAAAGTCTCTGTTGGCGATAAAACCCAGACCGGCGCACTGATTATGATTTTCGATTCCGCCGACGGTGCAGCAGACGCTGCACCTGCTCAGGCAGAAGAGAAGAAAGAAGCAGCTCCGGCAGCAGCACCAGCGGCTGCGGCGGCAAAAGACGTTAACGTTCCGGATATCGGCAGCGACGAAGTTGAAGTGACCGAAATCCTGGTGAAAGTTGGCGATAAAGTTGAAGCTGAACAGTCGCTGATCACCGTAGAAGGCGACAAGGCTTCTATGGAAGTTCCGGCTCCGTTTGCTGGCACCGTGAAAGAGATCAAAGTGAACGTGGGTGACAAAGTGTCTACCGGCTCGCTGATTATGGTCTTCGAAGTCGCGGGTGAAGCAGGCGCGGCAGCTCCGGCCGCTAAACAGGAAGCAGCTCCGGCAGCGGCCCCTGCACCAGCGGCTGGCGTGAAAGAAGTTAACGTTCCGGATATCGGCGGTGACGAAGTTGAAGTGACTGAAGTGATGGTGAAAGTGGGCGACAAAGTTGCCGCTGAACAGTCACTGATCACCGTAGAAGGCGACAAAGCTTCTATGGAAGTTCCGGCGCCGTTTGCAGGCGTCGTGAAGGAACTGAAAGTCAACGTTGGCGATAAAGTGAAAACTGGCTCGCTGATTATGATCTTCGAAGTTGAAGGCGCAGCGCCTGCGGCAGCTCCTGCGAAACAGGAAGCGGCAGCGCCGGCACCGGCAGCAAAAGCTGAAGCCCCGGCAGCAGCACCAGCTGCGAAAGCGGAAGGCAAATCTGAATTTGCTGAAAACGACGCTTATGTTCACGCGACTCCGCTGATCCGCCGTCTGGCACGCGAGTTTGGTGTTAACCTTGCGAAAGTGAAGGGCACTGGCCGTAAAGGTCGTATCCTGCGCGAAGACGTTCAGGCTTACGTGAAAGAAGCTATCAAACGTGCAGAAGCAGCTCC</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8.32323228564394</v>
+        <v>-42.60669801557233</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.63116813722309</v>
+        <v>-0.900577242230667</v>
       </c>
       <c r="F3" t="n">
-        <v>10.99409519360194</v>
+        <v>-6.517879085020752</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>TAATTTCGCCCGCACGGAT</t>
+          <t>ACGTAAAGTCTACATTTGTGCA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>TGTCGAACGGGACCATCATC</t>
+          <t>GGAGCTGCTTCTGCACGTTT</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>60.15332929800883</v>
+        <v>56.32043528895827</v>
       </c>
       <c r="J3" t="n">
-        <v>59.82515507935778</v>
+        <v>61.51048014864102</v>
       </c>
       <c r="K3" t="n">
-        <v>2284</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="4">
@@ -1583,40 +1659,83 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>pntA_promoter_sub</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TAATTTCGCCCGCACGGATCACGGTCACGCCGCGAATCACCACATCATCAAAATCAACAGTGATATTGCCGTCTTTCTCTTTGCACAACAGTTTCAGCAGATTAACGAGGTTTGTGCCGTAAAGCTGTGAGGATTGCGTCGGCAGACGGCCCGGAAGATCGGTATAACCAATCACTTTGACACCATTTTCCGTAGTGAAGATTTCACCCGGCACGGTGTATTCACAGTTGCCGCCGTTTTGGGCTGCCAGGTCGACAATCACACTGCCCGCCTTCATGGAGTCAACCATTTCACGGGTAATTAGCTTCGGCGCTGGTTTGCCTGGAATAAGCGCGGTGGTGACAATGATATCGACCTCTTTTGCCTGGGCGGCAAAGAGTTCCATTTCCGCTTTGATGAACGCGTCCGACATCACTTTGGCATAGCCATCGCCGCTGCCAGCTTCCTCTTTAAAATCCAGCTCGAGGAATTCCGCGCCCATACTTTGAACTTGTTCTTTCACTTCCGGGCGGGTGTCGAATGCACGCACAATCGCGCCGAGACTGTTTGCTGCGCCAATGGCGGCCAGACCTGCAACACCCGCACCAATCACCATCACTTTTGCCGGTGGCACTTTCCCGGCCGCAGTAATTTGCCCGGTAAAGAAGCGCCCAAATTCATGTGCCGCTTCAACAATGGCGCGATAACCGGCGATGTTCGCCATCGAGCTTAGTGCGTCCAGCGATTGTGCGCGTGAGATACGCGGCACAGAGTCCATCGCCATCACGGTCACGTTACGTTCCGCAAGTTTTTGCATTAATTCCGGATTCTGCGCAGGCCAGATAAAACTCACCAGCGTTGTCCCAGGATTCAGTAACGCAATTTCATCATCTAACGGCGCATTGACCTTCAGAATGATCTCTGACTGCCAGACGCTATTCCCTTCTACAATTTCAGCGCCCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCATTATGGTACGTCCAATCTTTCTCTAGATTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTGTTTTTTAAGCATAGACGGTCATTTGAGCAGGATTAAAATTGGCTTAAGGAATGTGATATGAAAAATGACGCAGACAGTTACACCGTTTAAATGCAATAATCAGCCACGTTTCTCGTTAATAACAATACCAGTACCTGGTTTGCGCAAGGCGAAGGATTATTTTTATGAAGCTTAAGAACACCCTCCTGGCGTCGGCACTGCTTTCTGCTATGGCATTCTCCGTTAACGCAGCAACAGAACTGACACCGGAGCAAGCGGCAGCGGTTAAACCTTTTGACCGTGTAGTGGTTACCGGTCGTTTTAATGCTATTGGCGAAGCGGTGAAAGCCGTTTCTCGTCGCGCAGATAAAGAAGGTGCCGCCTCTTTTTATGTTGTCGACACTTCTGATTTTGGTAACAGCGGTAACTGGCGTGTGGTCGCTGACCTCTATAAAGCCGATGCTGAAAAAGCAGAAGAAACAAGTAATCGCGTAATTAACGGTGTTGTCGAACTGCCGAAAGATCAGGCTGTTCTGATTGAACCGTTTGACACGGTCACCGTCCAGGGCTTCTATCGTAGCCAGCCAGAAGTCAATGATGCCATCACCAAAGCGGCAAAAGCGAAAGGTGCCTACTCTTTCTACATCGTTCGTCAAATCGATGCCAACCAGGGCGGCAACCAGCGTATTACTGCATTCATCTATAAAAAAGATGCTAAGAAACGTATCGTCCAGAGCCCGGATGTGATCCCGGCAGATTCCGAAGCAGGACGTGCAGCTCTGGCTGCCGGTGGCGAAGCCGCGAAGAAAGTTGAGATCCCGGGTGTTGCGACTACCGCATCACCAAGTTCTGAAGTCGGTCGCTTCTTTGAAACCCAGTCATCAAAAGGCGGGCGTTACACCGTCACGCTCCCGGATGGCACTAAAGTCGAAGAACTGAACAAAGCGACCGCAGCGATGATGGTCCCGTTCGACA</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>8.32323228564394</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-14.63116813722309</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10.99409519360194</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>TAATTTCGCCCGCACGGAT</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>TGTCGAACGGGACCATCATC</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>60.15332929800883</v>
+      </c>
+      <c r="J4" t="n">
+        <v>59.82515507935778</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Cgl1452_ins</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>AGTCGCTAAAGTCAGGCCATCTTTTTCAACAGGTGATGGATCGCCATGACAAACTTCACGACCAGCACGCCGCATGATGCATTATTTAAAACCTTTCTCACGCACCCTGACACTGCGCGGGATTTTATGGAGATTCACTTACCTAAAGATTTACGTGAACTGTGCGATCTCGATAGCTTAAAACTGGAATCCGCCAGCTTTGTCGATGAAAAATTGCGGGCGCTACACTCCGATATTTTATGGTCGGTAAAGACCCGCGAAGGCGATGGCTATATCTATGTGGTGATTGAACATCAGAGCCGCGAGGACATTCATATGGCCTTTCGCCTGATGCGCTATTCCATGGCGGTGATGTAGCGCCATATAGAGCATGATAAACGCCAGCCGCTACCGTTGGTCATCCCGATGCTATTTTATCACGGTAGCCGTAGTCCTTACCCCTGGTCCCTGTGCTGGCTGGACGAATTTGCCGACCCGACTACCGCACGGAAGCTTTATAACGCCGCGTTCCCGCTGGTGGATGTTACTGTCGTGCCAGACGACGAGATTGTGCAGCATCGCAGAGTCGCCCTGTTGGAGTTGATCCAAAAGCATATTCGCCAGCGCGATCTGATGGGGCTTATCGATCAACTGGTAGTATTACTGGTTACAGAGTGTGCTAATGACAGCCAGATAACTGCGCTGTTAAATTACATTTTACTGACTGGCGATGAAGCGCGTTTTAATGAGTTTATCAGTGAACTTACCCGTCGAATGCCACAACACAGGGAGCGAATAATGACGATTGCAGAGCGAATTCATAATGATGGATATATAAAAGGGGAGCAGCGCATTCTTCGATTGTTGTTGCAGAATGGGGCGGATCCTGAATGGATACAAAAGATTACCGGACTTTCGGCAGAGCAAATGCAGGCATTAAGGCAGCCCTTGCCTGAGCGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATGCGCGCCAAAAAGAGTATTGACTTCGCATCTTTTTGTACCCATAATTATTTCATTCACATCACACAGGAAAGGCCCATAATGCCGTCAAGTACGATCAATAACATGACTAATGGAGATAATCTCGCACAGATCGGCGTTGTAGGCCTAGCAGTAATGGGCTCAAACCTCGCCCGCAACTTCGCCCGCAACGGCAACACTGTCGCTGTCTACAACCGCAGCACTGACAAAACCGACAAGCTCATCGCCGATCACGGCTCCGAAGGCAACTTCATCCCTTCTGCAACCGTCGAAGAGTTCGTAGCATCCCTGGAAAAGCCACGCCGCGCCATCATCATGGTTCAGGCTGGTAACGCCACCGACGCAGTCATCAACCAGCTGGCAGATGCCATGGACGAAGGCGACATCATCATCGACGGCGGCAACGCCCTCTACACCGACACCATTCGTCGCGAGAAGGAAATCTCCGCACGCGGTCTCCACTTCGTCGGTGCTGGTATCTCCGGCGGCGAAGAAGGCGCACTCAACGGCCCATCCATCATGCCTGGTGGCCCAGCAAAGTCCTACGAGTCCCTCGGACCACTGCTTGAGTCCATCGCTGCCAACGTTGACGGCACCCCATGTGTCACCCACATCGGCCCAGACGGCGCCGGCCACTTCGTCAAGATGGTCCACAACGGCATCGAGTACGCCGACATGCAGGTCATCGGCGAGGCATACCACCTTCTCCGCTACGCAGCAGGCATGCAGCCAGCTGAAATCGCTGAGGTTTTCAAGGAATGGAACGCAGGCGACCTGGATTCCTACCTCATCGAAATCACCGCAGAGGTTCTCTCCCAGGTGGATGCTGAAACCGGCAAGCCACTAATCGACGTCATCGTTGACGCTGCAGGTCAGAAGGGCACCGGACGTTGGACCGTCAAGGCTGCTCTTGATCTGGGTATTGCTACCACCGGCATCGGCGAAGCTGTTTTCGCACGTGCACTCTCCGGCGCAACCAGCCAGCGCGCTGCAGCACAGGGCAACCTACCTGCAGGTGTCCTCACCGATCTGGAAGCACTTGGCGTGGACAAGGCACAGTTCGTCGAAGACGTTCGCCGTGCACTGTACGCATCCAAGCTTGTTGCTTACGCACAGGGCTTCGACGAGATCAAGGCTGGCTCCGACGAGAACAACTGGGACGTTGACCCTCGCGACCTCGCTACCATCTGGCGCGGCGGCTGCATCATTCGCGCTAAGTTCCTCAACCGCATCGTCGAAGCATACGATGCAAACGCTGAACTTGAGTCCCTGCTGCTCGATCCTTACTTCAAGAGCGAGCTCGGCGACCTCATCGATTCATGGCGTCGCGTGATTGTCACCGCCACCCAGCTTGGCCTGCCAATCCCAGTGTTCGCTTCCTCCCTGTCCTACTACGACAGCCTGCGTGCAGAGCGTCTGCCAGCAGCCCTGATCCAAGGACAGCGCGACTTCTTCGGTGCGCACACCTACAAGCGCATCGACAAGGATGGCTCCTTCCACACCGAGTGGTCCGGCGACCGCTCCGAGGTTGAAGCTTAAGCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACGGCCTCGCCAATTTGCTTCAGTGCTTCGCGATAGGTTTCGCTGAGCGGCAAAGCGCAGTTGATGCGCAGACAATTACGGTATTTGCCGGAAGCTGAGAAAATCGAGCCTGCCGCCACCTGGATTTTCATGCGGCACAGCTGCCGCGCGACGCAGACCATATCGACCTGTTCAGGCAATTCTATCCACAGTAAAAATCCGCCTTTCGGGCGCGTAATACAGATTTCGCAGGGAAAATATTCCCGTATCCAGCAGGTATAAAGCGCCAAATTGCGCTGATAGATCTGCCGCATCCGCCGGATATGGCGATGATAGTGACCTTCCAGCACAAACGTTGCCGCCGCCATTTGCGTGGACGGCACATTAAAGCTGCTGATGGCGTATTTCATATGCATCAGTTTATCGTGATAACGCCCCGGTGCGACCCAACCCACGCGCAGGCCTGGTGCAATACTTTTACTGAACGAGCTGCACAACAGCACTCGCCCGTCGATATCCCAGGAATGAATGGTCCGCGGGCGCGGATACTCCGTCGCCAGTTCGCCATAGACATCATCTTCAAAAATCACAATATCATGACGCTGAGCGAGAGAGAGAACGGCCCGTTTGCGCGCGTCCGGCATAATAAATCCCAGCGGATTATTACAGTTTGGCACCAGAATGATGCCTTTAATCGGCCACTGTTCCAGCGCCAGTTCCAGCGCTTCAACGCTGATGCCAGTTTCTGGATCGGTTGGGATTTCAATCACTTTCACGCCCATGCCGCGCAGCATCTGCATCGAACCGTAATAACAGGGGGATTCGACCGCGACAATATCGCCCGGTTTACACACTGCCATTAACGCCAGCGACATCGAGTTATGGCAGCCGCTGGTGATGATGATGTCATCGGCGGTGACCACCGAGCCGCTGTCGAGCATCAGGCGGGCAATCTGCTCTCGCAATACTCGCTGACCGGCTAACAAGTCA</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.763999345539332</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" t="n">
         <v>-0.263335569570756</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
         <v>2.876222107101569</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>AGTCGCTAAAGTCAGGCCAT</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>TGACTTGTTAGCCGGTCAGC</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>59.09464305682206</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J5" t="n">
         <v>60.32042093038291</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K5" t="n">
         <v>3754</v>
       </c>
     </row>
